--- a/RegionMutationList.xlsx
+++ b/RegionMutationList.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="348">
   <si>
     <t xml:space="preserve">gene_name</t>
   </si>
@@ -32,34 +32,874 @@
     <t xml:space="preserve">count</t>
   </si>
   <si>
+    <t xml:space="preserve">TERT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO218864,DO218874,DO218886,DO220857,DO220863,DO220866,DO220883,DO222395,DO222464,DO222504,DO222595,DO222599,DO222635,DO222653,DO222696,DO223398,DO228014,DO22804,DO228815,DO228828,DO228832,DO228835,DO228883,DO228893,DO228897,DO228898,DO228906,DO228907,DO44740,DO44744,DO44754,DO44792,DO44802,DO44806,DO44808,DO44828,DO44832,DO44864,DO45033,DO45035,DO45037,DO45041,DO45049,DO45053,DO45064,DO45069,DO45073,DO45077,DO45083,DO45089,DO46327,DO50893,DO50917,DO50935,DO50936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BCL2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO221125,DO228231,DO228240,DO228253,DO228258,DO228372,DO228400,DO228505,DO228851,DO52655,DO52671,DO52677,DO52681,DO221117,DO228281,DO228287,DO228325,DO228429,DO52664,DO52669,DO228257,DO228411,DO228595,DO27803,DO221131,DO228291,DO228490,DO228529,DO228838,DO27785,DO27859,DO52652,DO52663,DO52687,DO52690,DO52693,DO228353,DO228532,DO228891,DO27797,DO52689,DO228868,DO27857,DO52685,DO52653,DO52647,DO228394,DO228888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO221125,DO228231,DO228240,DO228253,DO228258,DO228372,DO228400,DO228505,DO228851,DO52655,DO52671,DO52677,DO52681,DO221117,DO228281,DO228287,DO228325,DO228429,DO52664,DO52669,DO228257,DO228411,DO228595,DO27803,DO221131,DO228291,DO228490,DO228529,DO228838,DO27785,DO27859,DO52652,DO52663,DO52687,DO52690,DO52693,DO228353,DO228532,DO228891,DO27797,DO52689,DO228868,DO27857,DO52685,DO52653,DO52647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO228253,DO228291,DO228353,DO228447,DO27857,DO221125,DO228231,DO228240,DO228258,DO228372,DO228400,DO228505,DO228851,DO52655,DO52671,DO52677,DO52681,DO221117,DO228281,DO228287,DO228325,DO228429,DO52664,DO52669,DO228257,DO228411,DO228595,DO27803,DO221131,DO228490,DO228529,DO228838,DO27785,DO27859,DO52652,DO52663,DO52687,DO52690,DO52693,DO228532,DO228891,DO27797,DO52689,DO228868,DO52685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO228888,DO27859,DO52681,DO52685,DO52689,DO228253,DO228291,DO228353,DO228447,DO27857,DO221125,DO228231,DO228240,DO228258,DO228372,DO228400,DO228505,DO228851,DO52655,DO52671,DO52677,DO221117,DO228281,DO228287,DO228325,DO228429,DO52664,DO52669,DO228257,DO228411,DO228595,DO27803,DO221131,DO228490,DO228529,DO228838,DO27785,DO52652,DO52663,DO52687,DO52690,DO52693,DO228532,DO228891,DO27797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO221117,DO228281,DO228287,DO228325,DO228372,DO228429,DO52664,DO52669,DO52677,DO228257,DO228411,DO228595,DO27803,DO221131,DO228253,DO228258,DO228291,DO228490,DO228529,DO228838,DO228851,DO27785,DO27859,DO52652,DO52655,DO52663,DO52681,DO52687,DO52690,DO52693,DO221125,DO228231,DO228353,DO228532,DO228891,DO27797,DO52689,DO228868,DO27857,DO52685,DO52653,DO52647,DO228394,DO228888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO218847,DO218849,DO218855,DO218856,DO218857,DO218859,DO218860,DO218861,DO218882,DO218896,DO218900,DO218906,DO218908,DO219873,DO219877,DO219878,DO220851,DO220855,DO220872,DO220873,DO220878,DO220887,DO222382,DO222402,DO222405,DO222413,DO222415,DO222418,DO222491,DO222494,DO222510,DO222521,DO222710,DO222714,DO222727,DO222731,DO228901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OXNAD1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO222578,DO218849,DO218856,DO218863,DO218900,DO219878,DO220855,DO220857,DO220859,DO220875,DO220880,DO220882,DO220902,DO220903,DO222491,DO222696,DO222775,DO227688,DO220891,DO220912,DO220913,DO222418,DO222420,DO222423,DO222494,DO222514,DO222521,DO222653,DO222662,DO222743,DO222818,DO222908,DO220851,DO220878,DO222710</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DPH3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO228287,DO228868,DO52652,DO52685,DO221117,DO228353,DO228371,DO228372,DO228851,DO27809,DO52681,DO228236,DO228394,DO228869,DO228873,DO27803,DO27835,DO52650,DO52656,DO52662,DO52671,DO221124,DO228231,DO228281,DO228316,DO228564,DO228876,DO52689,DO52693,DO228600,DO228880,DO228258,DO228325,DO228485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO27857,DO228287,DO228868,DO52652,DO52685,DO221117,DO228353,DO228371,DO228372,DO228851,DO27809,DO52681,DO228236,DO228394,DO228869,DO228873,DO27803,DO27835,DO52650,DO52656,DO52662,DO52671,DO221124,DO228231,DO228281,DO228316,DO228564,DO228876,DO52689,DO52693,DO228600,DO228880,DO228258,DO228325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO27857,DO228287,DO228868,DO52652,DO52685,DO221117,DO228353,DO228371,DO228372,DO228851,DO27809,DO52681,DO228236,DO228394,DO228869,DO228873,DO27803,DO27835,DO52650,DO52656,DO52662,DO52671,DO221124,DO228231,DO228281,DO228316,DO228564,DO228876,DO52689,DO52693,DO228600,DO228880,DO228258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO52681,DO228851,DO27845,DO52677,DO52693,DO228253,DO228382,DO228258,DO228532,DO228595,DO27785,DO52650,DO52655,DO52669,DO228257,DO52653,DO228281,DO27831,DO228231,DO228371,DO228375,DO228400,DO228505,DO228564,DO228584,DO228838,DO228868,DO228876,DO52647,DO52656,DO52664,DO52689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO228258,DO228532,DO228595,DO228851,DO27785,DO52650,DO52655,DO52669,DO228257,DO52653,DO228281,DO27831,DO228231,DO228253,DO228371,DO228375,DO228400,DO228505,DO228564,DO228584,DO228838,DO228868,DO228876,DO52647,DO52656,DO52664,DO52677,DO52689,DO52718,DO52681,DO52693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRMT10C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO220886,DO222731,DO222749,DO218892,DO219878,DO220879,DO220890,DO220894,DO220901,DO220902,DO220906,DO220907,DO222395,DO222415,DO222420,DO222423,DO222595,DO222644,DO222647,DO222775,DO222908,DO218861,DO220856,DO220893,DO222418,DO222498,DO222599,DO222714,DO222847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO228281,DO228400,DO228880,DO52647,DO221117,DO221124,DO228287,DO228353,DO228485,DO27803,DO52671,DO52687,DO228891,DO27817,DO27857,DO221125,DO228325,DO228411,DO228490,DO228600,DO228876,DO27787,DO52652,DO52653,DO52654,DO52664,DO52694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDC20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO220857,DO222418,DO222753,DO222810,DO220882,DO220885,DO220895,DO220900,DO220901,DO222402,DO222638,DO222908,DO218849,DO220866,DO220872,DO220875,DO220879,DO220887,DO220891,DO220902,DO220903,DO222434,DO222696,DO222859,DO222880,DO222904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RPS20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO218847,DO218849,DO218863,DO220851,DO220856,DO220861,DO220872,DO220879,DO220880,DO220882,DO220886,DO220889,DO220895,DO220898,DO220902,DO220907,DO220908,DO220910,DO222420,DO222434,DO222521,DO222572,DO222653,DO222749,DO222775,DO222868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO221125,DO221131,DO228231,DO228325,DO228353,DO228532,DO228851,DO228891,DO27785,DO27797,DO52689,DO228257,DO228429,DO228490,DO228868,DO27857,DO52663,DO52669,DO52685,DO52653,DO52647,DO228291,DO228394,DO228411,DO228888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO221117,DO221124,DO228287,DO228353,DO228485,DO228880,DO27803,DO52647,DO52671,DO52687,DO228891,DO27817,DO27857,DO221125,DO228325,DO228411,DO228490,DO228600,DO228876,DO27787,DO52652,DO52653,DO52654,DO52664,DO52694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RPL18A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO220857,DO218900,DO219879,DO220851,DO220855,DO220872,DO220873,DO220876,DO220880,DO220889,DO220890,DO220902,DO222402,DO222434,DO222504,DO222536,DO222578,DO222599,DO222635,DO222638,DO222653,DO222753,DO222775,DO222868,DO222904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSMC3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO220851,DO220857,DO220884,DO220887,DO222434,DO222731,DO220903,DO218849,DO220885,DO220886,DO220889,DO220891,DO220893,DO220909,DO220913,DO222407,DO222494,DO222572,DO222683,DO222749,DO222753,DO222775,DO222868,DO222908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MRPS31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO218874,DO218900,DO220852,DO220906,DO222402,DO222415,DO222554,DO222562,DO222595,DO222599,DO222678,DO222708,DO222731,DO228014,DO37468,DO37531,DO37703,DO37810,DO37839,DO37951,DO37986,DO38123,DO37635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO228231,DO52653,DO52669,DO52693,DO228325,DO27859,DO52650,DO52687,DO228371,DO228532,DO228838,DO228851,DO52655,DO52656,DO52681,DO228888,DO52685,DO52689,DO228253,DO228291,DO228353,DO228447,DO27857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KIAA0907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO222557,DO218863,DO218874,DO218880,DO219878,DO220856,DO220872,DO220882,DO220884,DO220885,DO220902,DO220903,DO222426,DO222494,DO222599,DO222683,DO222731,DO222749,DO222753,DO222868,DO222880,DO222887,DO220854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO228505,DO228532,DO27843,DO52669,DO228231,DO228281,DO52654,DO52681,DO52694,DO228325,DO228371,DO27803,DO52667,DO228851,DO27817,DO52653,DO52685,DO52687,DO52693,DO228291,DO228287,DO27859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO228253,DO228600,DO27773,DO228584,DO52681,DO228876,DO27831,DO221117,DO228281,DO228353,DO228838,DO52653,DO52687,DO228325,DO228532,DO52652,DO228257,DO228394,DO228873,DO27835,DO228851,DO52654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDCD11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO218849,DO218850,DO218892,DO219878,DO220851,DO220853,DO220879,DO220886,DO220903,DO220908,DO222562,DO222578,DO222595,DO222653,DO222749,DO222753,DO218847,DO218912,DO219873,DO222644,DO222908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USMG5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO228316,DO228876,DO6432,DO27831,DO52655,DO228236,DO228287,DO228303,DO228429,DO228447,DO228485,DO228600,DO228888,DO228889,DO27835,DO27843,DO52656,DO52690,DO52671,DO228371,DO228353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO228281,DO228564,DO52718,DO228371,DO228595,DO52681,DO228532,DO52677,DO52693,DO228236,DO228257,DO228258,DO228316,DO228382,DO228851,DO52650,DO52690,DO52654,DO228291,DO228505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOR1AIP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO222536,DO220851,DO220887,DO220891,DO222494,DO222644,DO222696,DO222749,DO222753,DO222775,DO218861,DO218900,DO220886,DO220890,DO220911,DO220912,DO222434,DO222546,DO222678,DO222868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOR1AIP2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRMT13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO218849,DO218863,DO218902,DO220856,DO220886,DO220899,DO220902,DO220903,DO222413,DO222423,DO222438,DO222491,DO222546,DO222599,DO222647,DO222731,DO222753,DO220873,DO220882,DO222683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SASS6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO221117,DO228316,DO228851,DO52662,DO52681,DO228258,DO228233,DO228240,DO228303,DO228485,DO228505,DO27797,DO52685,DO52693,DO228532,DO228600,DO52655,DO228253,DO27773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO52653,DO228584,DO228233,DO228532,DO27831,DO228371,DO228419,DO228880,DO228888,DO27835,DO52681,DO228236,DO52656,DO228281,DO228595,DO228231,DO228564,DO27859,DO52690</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO228353,DO228371,DO228600,DO228429,DO228407,DO228888,DO52664,DO221124,DO228236,DO228316,DO228485,DO27809,DO52690,DO228851,DO228394,DO52647,DO52681,DO228505,DO6432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GMCL1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO218874,DO218900,DO220851,DO220855,DO220912,DO222434,DO222653,DO222775,DO222880,DO218855,DO220878,DO220886,DO220891,DO220903,DO220906,DO220911,DO222644,DO222908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO52664,DO221124,DO228236,DO228316,DO228353,DO228485,DO27809,DO228600,DO52690,DO228851,DO228394,DO52647,DO52681,DO228407,DO228429,DO228505,DO228888,DO6432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOLGA2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO222880,DO222599,DO222644,DO218861,DO218912,DO219878,DO220891,DO220906,DO222423,DO222494,DO218856,DO218880,DO220907,DO222696,DO222743,DO222753,DO222847,DO222542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASXL2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO219878,DO220882,DO222423,DO222557,DO222635,DO222638,DO222662,DO220880,DO220890,DO220891,DO222402,DO222415,DO222420,DO222595,DO222647,DO222749,DO218856,DO220906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARHGEF18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO218874,DO220872,DO222420,DO222678,DO222775,DO218847,DO222653,DO222696,DO222710,DO222714,DO222731,DO222753,DO222868,DO222880,DO222908,DO222504,DO222647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EFCAB6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO220907,DO218863,DO218892,DO219878,DO219879,DO220855,DO220875,DO220882,DO220885,DO220906,DO222423,DO222434,DO222696,DO222708,DO222747,DO222749,DO220872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLC30A6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO218906,DO219878,DO220882,DO220891,DO220906,DO220908,DO222418,DO222516,DO222753,DO222775,DO220911,DO222411,DO222662,DO222678,DO222696,DO222868,DO228012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO218847,DO218912,DO219871,DO219878,DO220902,DO220912,DO222382,DO222402,DO222532,DO222595,DO222644,DO222710,DO222749,DO222775,DO222847,DO222868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TMEM102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO228017,DO220913,DO222647,DO220862,DO220867,DO220872,DO220878,DO220886,DO220891,DO220902,DO220903,DO222491,DO222644,DO222670,DO222775,DO222908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FGF11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMUG1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO222527,DO219879,DO220857,DO220884,DO220886,DO220906,DO222415,DO222662,DO222670,DO220911,DO222420,DO222434,DO222521,DO222595,DO222683,DO222696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNF185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO218859,DO218861,DO218900,DO220856,DO220903,DO220912,DO222678,DO222708,DO222710,DO222714,DO222824,DO228012,DO219879,DO220885,DO220901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO228236,DO228257,DO52694,DO228258,DO228375,DO228529,DO228253,DO228394,DO228600,DO228880,DO52654,DO52655,DO52664,DO52690,DO228532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO228858,DO228287,DO228429,DO52669,DO228281,DO228303,DO228419,DO27797,DO52650,DO221125,DO228253,DO52667,DO228891,DO27803,DO52664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSMD3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO225395,DO227552,DO227718,DO50328,DO228253,DO10846,DO225065,DO227488,DO227599,DO228953,DO228992,DO50342,DO50435,DO50437,DO218855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO222527,DO219879,DO220857,DO220884,DO220886,DO220906,DO222415,DO222662,DO222670,DO220911,DO222420,DO222434,DO222521,DO222595,DO222683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RPS27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO218850,DO218863,DO220855,DO220873,DO220889,DO220907,DO220911,DO220912,DO222683,DO222731,DO222753,DO222847,DO222868,DO222887,DO222423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAB13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IQGAP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO219878,DO220851,DO220857,DO220878,DO220882,DO220884,DO220886,DO220889,DO220891,DO220902,DO220911,DO222418,DO222696,DO222714,DO228012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KDM5A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO218850,DO219878,DO220851,DO220855,DO220866,DO220902,DO220909,DO220911,DO220912,DO222494,DO222696,DO222714,DO222727,DO222775,DO222662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIAPH3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO218914,DO220851,DO220876,DO220881,DO222749,DO222753,DO222818,DO218861,DO218874,DO219871,DO220882,DO222662,DO222868,DO222880</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KIAA0556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO220851,DO220872,DO220880,DO222434,DO222638,DO222678,DO222710,DO222731,DO222775,DO224600,DO220886,DO222429,DO222753,DO222908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GTF3C1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP003733.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO218863,DO220855,DO220872,DO220884,DO222847,DO222904,DO218900,DO222491,DO222510,DO222644,DO222696,DO222749,DO228011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FTH1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SYF2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO218863,DO218874,DO220872,DO220893,DO222429,DO222753,DO220885,DO220886,DO220901,DO222420,DO222426,DO222749,DO222775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPIL4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO218863,DO220907,DO222396,DO222653,DO222662,DO222749,DO222868,DO220872,DO220874,DO220886,DO220901,DO222599,DO222708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCM5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO220885,DO222516,DO222527,DO222532,DO222546,DO222615,DO222670,DO222880,DO218874,DO220900,DO220907,DO220908,DO222653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAM168A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO220876,DO220908,DO220911,DO220912,DO222423,DO222638,DO222731,DO222747,DO220886,DO222395,DO222402,DO222599,DO222908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ING4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO220875,DO220905,DO222546,DO222557,DO222644,DO222749,DO222775,DO222847,DO222402,DO220882,DO222415,DO222635,DO222868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RPL29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO218912,DO220886,DO220896,DO220911,DO222418,DO222638,DO222653,DO222714,DO222753,DO222775,DO222868,DO222880,DO218861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSUN6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO220902,DO222619,DO218874,DO218900,DO219878,DO220851,DO220886,DO220891,DO222405,DO222670,DO222390,DO219871,DO222847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRPF8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO222647,DO218900,DO220878,DO220882,DO220902,DO220906,DO220912,DO222395,DO222532,DO222599,DO222615,DO222638,DO222662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YAE1D1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO222420,DO219871,DO220851,DO220883,DO220886,DO220903,DO220906,DO222494,DO222546,DO222696,DO220891,DO220910,DO222504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRPF40B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO218849,DO218850,DO219877,DO220851,DO220878,DO220879,DO222494,DO222638,DO222683,DO222775,DO222731,DO220913,DO222599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCRS1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSMC6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO222775,DO218874,DO220884,DO220911,DO220912,DO222708,DO222880,DO222908,DO220878,DO220902,DO222429,DO222536,DO222749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MTRNR2L1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO218844,DO218850,DO218851,DO218855,DO218857,DO218858,DO218861,DO218866,DO218910,DO219878,DO227677,DO228019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCDHGA12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO221123,DO224546,DO224589,DO224770,DO227671,DO227747,DO49421,DO50326,DO50331,DO50412,DO51465,DO51494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LCMT1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO228893,DO220851,DO220882,DO220886,DO220902,DO222420,DO222527,DO222599,DO222658,DO222753,DO222775,DO222494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CENPH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO222749,DO218863,DO218880,DO218912,DO220891,DO222904,DO218874,DO220855,DO220866,DO220906,DO222550,DO222868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COQ10B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO220912,DO220902,DO222494,DO219873,DO219878,DO220891,DO222411,DO222644,DO222662,DO222670,DO222908,DO222775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ART4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO218884,DO218900,DO220851,DO220852,DO220872,DO220893,DO220912,DO222405,DO222418,DO222532,DO222775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO222504,DO218906,DO220859,DO220862,DO222420,DO222494,DO222635,DO228011,DO220872,DO220906,DO222683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RPL14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO222775,DO220891,DO220906,DO228012,DO220879,DO220886,DO220889,DO220902,DO220911,DO222647,DO222710</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCF3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO218850,DO222595,DO222749,DO222753,DO220853,DO220873,DO220881,DO222599,DO222775,DO222908,DO220886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AARSD1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO224570,DO224613,DO46827,DO46897,DO46977,DO47052,DO47120,DO47147,DO47162,DO47243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLCAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO218874,DO220851,DO220875,DO220876,DO222402,DO222550,DO222615,DO222683,DO222847,DO222859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GTF3C3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO224824,DO225182,DO225231,DO227610,DO227718,DO228465,DO50325,DO50374,DO50407,DO51478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTUD5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chrX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO220885,DO220913,DO222409,DO218874,DO222402,DO222411,DO222536,DO222542,DO222644,DO227688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OR2M5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO222491,DO222731,DO227565,DO227601,DO228251,DO228858,DO50364,DO50398,DO50403,DO50454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNTN5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO227770,DO50318,DO219116,DO225212,DO227488,DO227883,DO45155,DO50441,DO50450,DO50323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOP2A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO222710,DO222491,DO222532,DO220853,DO220855,DO220872,DO220908,DO222420,DO222438,DO222653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDR5B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO218900,DO220851,DO220855,DO220890,DO220896,DO222405,DO222595,DO222753,DO222775,DO222572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CEP68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO220889,DO220890,DO220893,DO220902,DO220907,DO222491,DO222599,DO222615,DO222710,DO222908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RALY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO218874,DO220876,DO220885,DO220894,DO222407,DO222562,DO222418,DO222635,DO222662,DO222775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCERG1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO222644,DO45037,DO46327,DO220857,DO220898,DO222420,DO222542,DO222572,DO222775,DO222908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MYL12B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO220886,DO218912,DO222542,DO222647,DO220891,DO220900,DO222557,DO222578,DO222638,DO222880</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FICD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO218850,DO218874,DO220873,DO222714,DO222749,DO222880,DO228012,DO228014,DO228017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COG6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO220851,DO220886,DO220912,DO222407,DO222415,DO222434,DO222595,DO222699,DO222775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSPT1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO220886,DO220902,DO222521,DO222546,DO222683,DO222721,DO222731,DO222775,DO228012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOX9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO219871,DO219878,DO220859,DO220902,DO220903,DO222420,DO222491,DO222880,DO228011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNTNAP2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO10850,DO228984,DO228996,DO229020,DO229021,DO35116,DO50328,DO50355,DO50437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LHX2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO228851,DO27827,DO52665,DO220867,DO227571,DO227902,DO33091,DO33400,DO33688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCDC94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO218900,DO220859,DO220862,DO220886,DO220903,DO220907,DO222731,DO222747,DO222775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GGT7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO220851,DO222527,DO222880,DO220878,DO220881,DO222494,DO222753,DO222810,DO222847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZNF180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO227914,DO218856,DO218861,DO218874,DO220891,DO222395,DO222420,DO222696,DO222743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOXA3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO222662,DO222708,DO222644,DO218908,DO220886,DO220890,DO220891,DO222514,DO222731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SYMPK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO228371,DO219878,DO220857,DO220882,DO220886,DO222516,DO222527,DO222880,DO222908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP2A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO218861,DO220861,DO220898,DO220906,DO222420,DO222749,DO228322,DO222908,DO220900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSKS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZCWPW1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO222868,DO220879,DO220890,DO220891,DO220903,DO222395,DO222407,DO222532,DO222536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HINFP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO218856,DO220889,DO222491,DO222753,DO222775,DO222880,DO220891,DO222678,DO228013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FDXR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO219878,DO220855,DO220856,DO222527,DO222578,DO222644,DO222749,DO222775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POFUT2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO220881,DO220889,DO220900,DO222434,DO222599,DO222678,DO222721,DO222847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHOSPHO2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO222458,DO228238,DO228326,DO228353,DO27769,DO27823,DO27847,DO52667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KLHL23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BCHE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO227747,DO227888,DO228714,DO229014,DO50342,DO50406,DO50411,DO50447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LRP12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO219112,DO227488,DO227500,DO227559,DO227897,DO228675,DO228680,DO229001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZNF277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO218861,DO218912,DO220851,DO220886,DO222415,DO222647,DO222749,DO222908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOCK4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSPP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO220890,DO220891,DO222494,DO222516,DO222546,DO222749,DO222868,DO222908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANKRD13A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO218874,DO222491,DO220891,DO222516,DO222527,DO222708,DO222749,DO222908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GIT2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTF2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO220842,DO220875,DO220881,DO220913,DO222491,DO222599,DO222653,DO222775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TMEM104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO34680,DO220873,DO220886,DO220902,DO222662,DO222749,DO222908,DO228012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAT9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OR6N2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO10858,DO225044,DO227651,DO228951,DO228953,DO50384,DO50411,DO50343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RFC2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO218863,DO218874,DO220905,DO222491,DO222731,DO222753,DO222847,DO222775</t>
+  </si>
+  <si>
     <t xml:space="preserve">TRIM8</t>
   </si>
   <si>
-    <t xml:space="preserve">chr10</t>
-  </si>
-  <si>
     <t xml:space="preserve">DO218847,DO220902,DO220903,DO222644,DO222749,DO222908,DO227688</t>
   </si>
   <si>
-    <t xml:space="preserve">PDCD11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO218849,DO218850,DO218892,DO219878,DO220851,DO220853,DO220879,DO220886,DO220903,DO220908,DO222562,DO222578,DO222595,DO222653,DO222749,DO222753,DO218847,DO218850,DO218912,DO219873,DO222644,DO222908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLEKHS1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO218173,DO220823,DO224618,DO224732,DO224920,DO225046,DO225133,DO225215,DO225294,DO225295,DO225334,DO227830,DO227836,DO224732,DO224741,DO224768,DO225084,DO225125,DO225173,DO225185,DO225274,DO225306,DO227815,DO228713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OR51F1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO218856,DO220889,DO220902,DO220903,DO222475,DO222546</t>
+    <t xml:space="preserve">TMEM218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO218847,DO218874,DO220878,DO220906,DO222696,DO222824,DO222908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MYLPF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO220875,DO220895,DO220902,DO222527,DO222595,DO222615,DO222644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TBC1D10B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IRF2BP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO218863,DO218900,DO220852,DO220907,DO222721,DO222810,DO222908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FEM1A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO218849,DO220884,DO220889,DO220912,DO222415,DO222731,DO222753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCDHGA9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO220861,DO220891,DO220913,DO222429,DO222880,DO37408,DO38129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAS2R38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO220873,DO220881,DO220886,DO220907,DO222434,DO222494,DO222644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADCY8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO225332,DO227770,DO227840,DO227922,DO228956,DO228992,DO229017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOR1B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO220859,DO220872,DO220878,DO220882,DO222494,DO222908,DO228011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZCCHC7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO222434,DO222491,DO222562,DO222714,DO222727,DO222749,DO222908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXOC4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO220853,DO220875,DO220890,DO222402,DO222662,DO222908,DO225299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUCL1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO220881,DO220902,DO220912,DO222595,DO222753,DO222775,DO48733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RP11-159G9.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO50438,DO220855,DO220873,DO220886,DO222409,DO222423,DO222868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO228353,DO27787,DO221124,DO228287,DO228876,DO52662,DO52687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOPNL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO227531,DO220853,DO220905,DO222536,DO222546,DO222710,DO222908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAMTA1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO220879,DO218860,DO220885,DO220906,DO222536,DO222868,DO227688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SECISBP2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO222382,DO220880,DO220887,DO220906,DO222415,DO222536,DO222638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZNF324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO220891,DO222402,DO222420,DO222599,DO222775,DO222898,DO220878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CETN3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO222521,DO218849,DO220875,DO222402,DO222405,DO222595,DO222753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OR14A16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO50342,DO227599,DO227911,DO227917,DO229007,DO50409,DO50452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXLNG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO218898,DO218900,DO220886,DO220891,DO222635,DO222644,DO220878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OR2T4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO218863,DO10859,DO228990,DO48721,DO50307,DO50408,DO50447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KRTAP21-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO220912,DO219111,DO227466,DO227565,DO227620,DO228992,DO50342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCDC86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO218847,DO219871,DO220855,DO220882,DO222647,DO227677,DO220906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MTF1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO222653,DO220878,DO220893,DO220895,DO220902,DO222572,DO222775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MRGPRX2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO225126,DO227498,DO228714,DO33037,DO50306,DO51528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OR4X2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO218849,DO220894,DO220906,DO222418,DO222514,DO222532</t>
   </si>
   <si>
     <t xml:space="preserve">OR51F2</t>
@@ -68,163 +908,52 @@
     <t xml:space="preserve">DO218863,DO218914,DO220868,DO220891,DO222434,DO222653</t>
   </si>
   <si>
-    <t xml:space="preserve">HBG2</t>
+    <t xml:space="preserve">HBG1</t>
   </si>
   <si>
     <t xml:space="preserve">DO220880,DO220911,DO222429,DO222638,DO222647,DO222721</t>
   </si>
   <si>
-    <t xml:space="preserve">AP003733.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO218863,DO220855,DO220872,DO220884,DO222847,DO222904,DO218900,DO222491,DO222510,DO222644,DO222696,DO222749,DO228011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FICD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO218850,DO218874,DO220873,DO222714,DO222749,DO222880,DO228012,DO228014,DO228017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COG6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO220851,DO220886,DO220912,DO222407,DO222415,DO222434,DO222595,DO222699,DO222775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SLC7A8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr14</t>
+    <t xml:space="preserve">CEBPE</t>
   </si>
   <si>
     <t xml:space="preserve">DO228294,DO228829,DO228888,DO32825,DO50772,DO52685</t>
   </si>
   <si>
-    <t xml:space="preserve">CYP19A1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO218842,DO218858,DO219875,DO219881,DO227681,DO45247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MYLPF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO220875,DO220895,DO220902,DO222527,DO222595,DO222615,DO222644</t>
-  </si>
-  <si>
     <t xml:space="preserve">KATNB1</t>
   </si>
   <si>
     <t xml:space="preserve">DO218880,DO220880,DO220902,DO222423,DO222434,DO222721</t>
   </si>
   <si>
-    <t xml:space="preserve">MTRNR2L1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO218844,DO218850,DO218851,DO218855,DO218857,DO218858,DO218861,DO218866,DO218910,DO219878,DO227677,DO228019</t>
-  </si>
-  <si>
     <t xml:space="preserve">RPL19</t>
   </si>
   <si>
     <t xml:space="preserve">DO220886,DO220896,DO220909,DO222521,DO222749,DO222810</t>
   </si>
   <si>
+    <t xml:space="preserve">CACNB1</t>
+  </si>
+  <si>
     <t xml:space="preserve">DO218849,DO219878,DO220882,DO220908,DO222696,DO222708</t>
   </si>
   <si>
-    <t xml:space="preserve">PTGES3L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO224570,DO224613,DO46827,DO46897,DO46977,DO47052,DO47120,DO47147,DO47162,DO47243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOX9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO219871,DO219878,DO220859,DO220902,DO220903,DO222420,DO222491,DO222880,DO228011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FADS6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO219878,DO220855,DO220856,DO222527,DO222578,DO222644,DO222749,DO222775</t>
-  </si>
-  <si>
     <t xml:space="preserve">C17orf89</t>
   </si>
   <si>
     <t xml:space="preserve">DO218860,DO222514,DO222644,DO222880,DO228014,DO228017</t>
   </si>
   <si>
-    <t xml:space="preserve">RPL18A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO218847,DO218912,DO219871,DO219878,DO220902,DO220912,DO222382,DO222402,DO222532,DO222595,DO222644,DO222710,DO222749,DO222775,DO222847,DO222868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MYPOP</t>
+    <t xml:space="preserve">ENTHD2</t>
   </si>
   <si>
     <t xml:space="preserve">DO218863,DO218892,DO219877,DO220875,DO220903,DO222415</t>
   </si>
   <si>
-    <t xml:space="preserve">DO218863,DO218900,DO220852,DO220907,DO222721,DO222810,DO222908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBC3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO224613,DO46832,DO46838,DO46847,DO46897,DO47171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FEM1A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO218849,DO220884,DO220889,DO220912,DO222415,DO222731,DO222753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OR6N2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO227935,DO228428,DO33037,DO34120,DO35126,DO50314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LMX1A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO10846,DO10853,DO220904,DO220908,DO227778,DO228695,DO228714,DO228951,DO228977,DO228990,DO50341,DO50342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEFB129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO10841,DO219111,DO224737,DO227823,DO227893,DO32831,DO33432,DO34128,DO50328,DO50331,DO50346,DO51477</t>
+    <t xml:space="preserve">DACT3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO218849,DO218861,DO218900,DO220875,DO220895,DO220911</t>
   </si>
   <si>
     <t xml:space="preserve">C20orf24</t>
@@ -233,46 +962,25 @@
     <t xml:space="preserve">DO220890,DO222434,DO222753,DO222775,DO222898,DO227677</t>
   </si>
   <si>
-    <t xml:space="preserve">PHOSPHO2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO222458,DO228238,DO228326,DO228353,DO27769,DO27823,DO27847,DO52667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KLHL23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C2orf66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO224824,DO225182,DO225231,DO227610,DO227718,DO228465,DO50325,DO50374,DO50407,DO51478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GMCL1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO218874,DO218900,DO220851,DO220855,DO220912,DO222434,DO222653,DO222775,DO222880,DO218855,DO218900,DO220878,DO220886,DO220891,DO220903,DO220906,DO220911,DO222644,DO222908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EFCAB12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO220875,DO220894,DO220903,DO222542,DO222708,DO222714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRSS45</t>
+    <t xml:space="preserve">CRYGS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO224648,DO227871,DO32821,DO45141,DO46396,DO48715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRSS46</t>
   </si>
   <si>
     <t xml:space="preserve">DO218847,DO218848,DO218857,DO218863,DO218868,DO218902</t>
   </si>
   <si>
-    <t xml:space="preserve">UBA3</t>
+    <t xml:space="preserve">ABHD14B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO218842,DO218858,DO218898,DO218908,DO219881,DO227681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TMF1</t>
   </si>
   <si>
     <t xml:space="preserve">DO218847,DO220862,DO222595,DO222731,DO222880,DO228012</t>
@@ -287,114 +995,6 @@
     <t xml:space="preserve">DO220874,DO220886,DO222396,DO222407,DO222536,DO222653</t>
   </si>
   <si>
-    <t xml:space="preserve">PCDHGA9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO220861,DO220891,DO220913,DO222429,DO222880,DO37408,DO38129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCDHGA12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO221123,DO224546,DO224589,DO224770,DO227671,DO227747,DO49421,DO50326,DO50331,DO50412,DO51465,DO51494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AC016885.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO220897,DO220903,DO220910,DO222395,DO222418,DO222514,DO222527,DO222683,DO222753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOR1B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO220859,DO220872,DO220878,DO220882,DO222494,DO222908,DO228011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QDPR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO218847,DO218860,DO218878,DO218890,DO218892,DO218910,DO222475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SULT1E1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO219117,DO224633,DO225130,DO225353,DO228600,DO228968,DO35442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TBX20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO218847,DO219878,DO220859,DO220886,DO222402,DO222644,DO222662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZCCHC7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO222434,DO222491,DO222562,DO222714,DO222727,DO222749,DO222908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZNF277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO218861,DO218912,DO220851,DO220886,DO222415,DO222647,DO222749,DO222908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSPP1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO220890,DO220891,DO222494,DO222516,DO222546,DO222749,DO222868,DO222908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNTNAP2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO10850,DO228984,DO228996,DO229020,DO229021,DO35116,DO50328,DO50355,DO50437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OR4X2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO218849,DO220894,DO220906,DO222418,DO222514,DO222532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO218849,DO220851,DO220875,DO220891,DO220902,DO222595,DO222749,DO218861,DO220880,DO220884,DO220889,DO222599,DO222868,DO228011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MCM5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO220885,DO222516,DO222527,DO222532,DO222546,DO222615,DO222670,DO222880,DO218874,DO220900,DO220907,DO220908,DO222546,DO222653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KRT40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO220851,DO220886,DO220910,DO222491,DO222567,DO222662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO220861,DO220880,DO220882,DO220889,DO220906,DO222405,DO222908</t>
-  </si>
-  <si>
     <t xml:space="preserve">RPS19</t>
   </si>
   <si>
@@ -407,28 +1007,37 @@
     <t xml:space="preserve">DO218874,DO220875,DO220896,DO222527,DO222696,DO222868</t>
   </si>
   <si>
+    <t xml:space="preserve">UFD1L</t>
+  </si>
+  <si>
     <t xml:space="preserve">GCDH</t>
   </si>
   <si>
     <t xml:space="preserve">DO220851,DO220881,DO222635,DO222743,DO222775,DO222908</t>
   </si>
   <si>
-    <t xml:space="preserve">GYPA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO220851,DO220887,DO220902,DO220906,DO220912,DO228012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CEP68</t>
+    <t xml:space="preserve">KLF1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SDR42E1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO218850,DO220903,DO222491,DO222644,DO222749,DO222847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBXL18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO218900,DO220851,DO220873,DO220878,DO222653,DO222731</t>
   </si>
   <si>
     <t xml:space="preserve">DO220891,DO222420,DO222434,DO222494,DO222683,DO222696</t>
   </si>
   <si>
-    <t xml:space="preserve">FGF12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO220907,DO222423,DO222599,DO222683,DO222847,DO222880</t>
+    <t xml:space="preserve">LIFR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO218874,DO220885,DO220906,DO220910,DO222653,DO222662</t>
   </si>
   <si>
     <t xml:space="preserve">CHAT</t>
@@ -437,388 +1046,16 @@
     <t xml:space="preserve">DO220906,DO220912,DO222402,DO222532,DO222595,DO222880</t>
   </si>
   <si>
-    <t xml:space="preserve">LHX2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO228851,DO27827,DO52665,DO220867,DO227571,DO227902,DO33091,DO33400,DO33688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDC20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO220857,DO222418,DO222753,DO222810,DO220882,DO220885,DO220895,DO220900,DO220901,DO222402,DO222638,DO222908,DO218849,DO220866,DO220872,DO220875,DO220879,DO220887,DO220891,DO220902,DO220903,DO222434,DO222696,DO222859,DO222880,DO222904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ELOVL1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KIAA0556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO220851,DO220872,DO220880,DO222434,DO222638,DO222678,DO222710,DO222731,DO222775,DO224600,DO220886,DO222429,DO222753,DO222908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNF185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO218859,DO218861,DO218900,DO220856,DO220903,DO220912,DO222678,DO222708,DO222710,DO222714,DO222824,DO228012,DO219879,DO220885,DO220901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KCND1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chrX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO220885,DO220913,DO222409,DO218874,DO222402,DO222411,DO222536,DO222542,DO222644,DO227688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCDC94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO218900,DO220859,DO220862,DO220886,DO220903,DO220907,DO222731,DO222747,DO222775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRMT10C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO220886,DO222731,DO222749,DO218892,DO219878,DO220879,DO220890,DO220894,DO220901,DO220902,DO220906,DO220907,DO222395,DO222415,DO222420,DO222423,DO222595,DO222644,DO222647,DO222775,DO222908,DO218861,DO220856,DO220879,DO220893,DO220906,DO222418,DO222498,DO222599,DO222647,DO222908,DO222714,DO222847,DO222908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANKRD13A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO218874,DO222491,DO220891,DO222516,DO222527,DO222708,DO222749,DO222908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RPL17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO218850,DO218872,DO218886,DO218890,DO218902,DO224594,DO224638,DO224594,DO224638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OR2M5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO222491,DO222731,DO227565,DO227601,DO228251,DO228858,DO50364,DO50398,DO50403,DO50454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTF2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO220842,DO220875,DO220881,DO220913,DO222491,DO222599,DO222653,DO222775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EXOC4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO220853,DO220875,DO220890,DO222402,DO222662,DO222908,DO225299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TMEM104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO34680,DO220873,DO220886,DO220902,DO222662,DO222749,DO222908,DO228012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MUCL1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO220881,DO220902,DO220912,DO222595,DO222753,DO222775,DO48733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DTX1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO228605,DO228429,DO228605,DO52666,DO221128,DO228231,DO228326,DO228424,DO27855,DO52689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZNF384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO220875,DO220905,DO222546,DO222557,DO222644,DO222749,DO222775,DO222847,DO222402,DO220882,DO222415,DO222635,DO222868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OR51G2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO220893,DO220906,DO222413,DO222514,DO222615,DO222644,DO33344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RP11-159G9.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO50438,DO220855,DO220873,DO220886,DO222409,DO222423,DO222868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SLITRK3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO48721,DO227599,DO227608,DO227610,DO228719,DO229021,DO23540,DO45081,DO45131,DO45237,DO48721,DO49199,DO50393,DO50411,DO50450,DO50452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO220857,DO218900,DO219879,DO220851,DO220855,DO220872,DO220873,DO220876,DO220880,DO220889,DO220890,DO220902,DO222402,DO222434,DO222504,DO222536,DO222578,DO222599,DO222635,DO222638,DO222653,DO222753,DO222775,DO222868,DO222904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OXNAD1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO222578,DO218849,DO218856,DO218863,DO218900,DO219878,DO220855,DO220857,DO220859,DO220875,DO220880,DO220882,DO220902,DO220903,DO222491,DO222578,DO222696,DO222775,DO227688,DO219878,DO220891,DO220912,DO220913,DO222418,DO222420,DO222423,DO222494,DO222514,DO222521,DO222653,DO222662,DO222696,DO222743,DO222818,DO222908,DO227688,DO220851,DO220878,DO222710</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SP2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO222504,DO218906,DO220859,DO220862,DO222420,DO222494,DO222635,DO228011,DO220872,DO220906,DO222683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TMEM102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO228017,DO220913,DO222647,DO220862,DO220867,DO220872,DO220878,DO220886,DO220891,DO220902,DO220903,DO222491,DO222644,DO222670,DO222775,DO222908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FGF11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BTG2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO228308,DO228414,DO228424,DO27853,DO52701,DO228414,DO52655,DO52670,DO52692,DO221118,DO228414,DO228424,DO228428,DO228429,DO228605,DO228855,DO27779,DO27853,DO52684,DO52686,DO52692,DO221127,DO228595,DO228605,DO52686,DO52692,DO228496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAMTA1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO220879,DO218860,DO220885,DO220906,DO222536,DO222868,DO227688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SECISBP2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO222382,DO220880,DO220887,DO220906,DO222415,DO222536,DO222638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO228492,DO221118,DO228376,DO228414,DO228504,DO228414,DO228429,DO228605,DO228429,DO228605,DO27777,DO27853,DO52650,DO52686,DO52692,DO228349,DO228355,DO228414,DO228429,DO228447,DO228517,DO228518,DO27779,DO52665,DO52672,DO52675,DO52686,DO52692,DO228414,DO27833,DO52665,DO52692,DO221118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO228414,DO52686,DO228855,DO228605,DO228294,DO228414,DO228605,DO228873,DO27853,DO52654,DO52665,DO52675,DO52686,DO221126,DO228505,DO52679,DO52686,DO52692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNTN5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO227770,DO50318,DO219116,DO225212,DO227488,DO227883,DO45155,DO50441,DO50450,DO50323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO27833,DO228492,DO221118,DO228376,DO228414,DO228504,DO228414,DO228429,DO228605,DO228429,DO228605,DO27777,DO27853,DO52650,DO52686,DO52692,DO228349,DO228355,DO228414,DO228429,DO228447,DO228517,DO228518,DO27779,DO52665,DO52672,DO52675,DO52686,DO52692,DO228414,DO27833,DO52665,DO52692,DO221118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO228326,DO228414,DO228496,DO27779,DO27833,DO52692,DO52692,DO228376,DO228414,DO228428,DO228429,DO228605,DO228414,DO228424,DO228438,DO27853,DO51503,DO52675,DO52692,DO228316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FOXA3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO222662,DO222708,DO222644,DO218908,DO220886,DO220890,DO220891,DO222514,DO222731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZNF324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO220891,DO222402,DO222420,DO222599,DO222775,DO222898,DO220878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BIRC3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO52674,DO228294,DO228414,DO27773,DO27779,DO52674,DO52675,DO52685,DO52664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO221117,DO228465,DO228496,DO228537,DO27779,DO52648,DO7024,DO27779,DO52648,DO228414,DO52648,DO52692,DO228403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO228371,DO219878,DO220857,DO220882,DO220886,DO222516,DO222527,DO222880,DO222908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOR1AIP1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO222536,DO220851,DO220887,DO220891,DO222494,DO222644,DO222696,DO222749,DO222753,DO222775,DO218861,DO218900,DO220886,DO220890,DO220911,DO220912,DO222434,DO222546,DO222678,DO222868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO220889,DO220890,DO220893,DO220902,DO220907,DO222491,DO222599,DO222615,DO222710,DO222908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRMT13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO218849,DO218863,DO218902,DO220856,DO220886,DO220899,DO220902,DO220903,DO222413,DO222423,DO222438,DO222491,DO222546,DO222599,DO222647,DO222731,DO222753,DO220873,DO220882,DO222683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARHGEF18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO218874,DO220872,DO222420,DO222678,DO222775,DO218847,DO218874,DO222653,DO222696,DO222710,DO222714,DO222731,DO222753,DO222868,DO222880,DO222908,DO222504,DO222647,DO222710,DO222420</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXLNG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO218898,DO218900,DO220886,DO220891,DO222635,DO222644,DO220878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO228349,DO228394,DO228326,DO228414,DO228496,DO27779,DO27833,DO52692,DO52692,DO228376,DO228414,DO228428,DO228429,DO228605,DO228414,DO228424,DO228438,DO27853,DO51503,DO52675,DO52692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RALY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO218874,DO220876,DO220885,DO220894,DO222407,DO222562,DO218874,DO222418,DO222635,DO222662,DO222775,DO218874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OR2T4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO218863,DO10859,DO228990,DO48721,DO50307,DO50408,DO50447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YAE1D1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO222420,DO219871,DO220851,DO220883,DO220886,DO220903,DO220906,DO222494,DO222546,DO222696,DO220891,DO220910,DO222504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LCMT1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO228893,DO220851,DO220882,DO220886,DO220902,DO222420,DO222527,DO222599,DO222658,DO222753,DO222775,DO222494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCERG1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO222644,DO45037,DO46327,DO220857,DO220898,DO222420,DO222542,DO222572,DO222775,DO222908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RPS27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO218850,DO218863,DO220855,DO220873,DO220889,DO220907,DO220911,DO220912,DO222683,DO222731,DO222753,DO222847,DO222868,DO222887,DO222423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NUP210L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCDC86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO218847,DO219871,DO220855,DO220882,DO222647,DO227677,DO220906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INPP5B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO222653,DO220878,DO220893,DO220895,DO220902,DO222572,DO222775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AP2A1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO218861,DO220861,DO220898,DO220906,DO222420,DO222749,DO228322,DO222908,DO220900</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEPCE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO222868,DO220879,DO220890,DO220891,DO220903,DO222395,DO222407,DO222532,DO222536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RPL14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO222775,DO220891,DO220906,DO228012,DO220879,DO220886,DO220889,DO220902,DO220911,DO222647,DO222710,DO222775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SLC30A6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO218906,DO219878,DO220882,DO220891,DO220906,DO220908,DO222418,DO222516,DO222753,DO222775,DO218906,DO219878,DO220906,DO220911,DO222411,DO222662,DO222678,DO222696,DO222868,DO228012,DO222775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CENPH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO222749,DO218863,DO218880,DO218912,DO220891,DO222904,DO218874,DO218912,DO220855,DO220866,DO220906,DO222550,DO222868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRPF40B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO218849,DO218850,DO219877,DO220851,DO220878,DO220879,DO222494,DO222638,DO222683,DO222775,DO222731,DO220913,DO222599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HINFP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO218856,DO220889,DO222491,DO222753,DO222775,DO222880,DO218856,DO220891,DO222678,DO222880,DO228013,DO222753</t>
-  </si>
-  <si>
     <t xml:space="preserve">C8orf44-SGK3</t>
   </si>
   <si>
-    <t xml:space="preserve">DO220906,DO219878,DO220886,DO220906,DO222536,DO222644,DO222775</t>
+    <t xml:space="preserve">DO220906,DO219878,DO220886,DO222536,DO222644,DO222775</t>
   </si>
   <si>
     <t xml:space="preserve">C8orf44</t>
   </si>
   <si>
-    <t xml:space="preserve">IQGAP1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO219878,DO220851,DO220857,DO220878,DO220882,DO220884,DO220886,DO220889,DO220891,DO220902,DO220911,DO222418,DO222696,DO222714,DO228012,DO220851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCDC77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO218850,DO219878,DO220851,DO220855,DO220866,DO220902,DO220909,DO220911,DO220912,DO222494,DO222696,DO222714,DO222727,DO222775,DO222662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSMC6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO222775,DO218874,DO220884,DO220911,DO220912,DO222708,DO222880,DO222908,DO220878,DO220902,DO222429,DO222536,DO222749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COQ10B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO220912,DO220902,DO222494,DO219873,DO219878,DO220891,DO220902,DO222411,DO222494,DO222644,DO222662,DO222670,DO222908,DO222775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SLCO5A1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO222423,DO227770,DO228994,DO50389,DO50442,DO10841,DO218269,DO222358,DO224633,DO227911,DO229017,DO27775,DO50442,DO10857,DO33091,DO48721,DO50384,DO50392,DO50406,DO10858,DO225212,DO50450,DO34600,DO227660</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO52674,DO222423,DO227770,DO228994,DO50389,DO50442,DO10841,DO218269,DO222358,DO224633,DO227911,DO229017,DO27775,DO50442,DO10857,DO33091,DO48721,DO50384,DO50392,DO50406,DO10858,DO225212,DO50450,DO34600,DO227660</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MYL12B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO220886,DO218912,DO222542,DO222647,DO220891,DO220900,DO222557,DO222578,DO222638,DO222880</t>
+    <t xml:space="preserve">VCPIP1</t>
   </si>
 </sst>
 </file>
@@ -1178,7 +1415,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>104402045</v>
+        <v>1295228</v>
       </c>
       <c r="D2" t="n">
         <v>2.2250738585072e-308</v>
@@ -1187,7 +1424,7 @@
         <v>8</v>
       </c>
       <c r="F2" t="n">
-        <v>7</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
@@ -1195,19 +1432,19 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
-        <v>105156316</v>
+        <v>60988085</v>
       </c>
       <c r="D3" t="n">
-        <v>2.2250738585072e-308</v>
+        <v>0.000000105532711902612</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="n">
-        <v>22</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4">
@@ -1215,119 +1452,119 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>105156317</v>
+        <v>60988084</v>
       </c>
       <c r="D4" t="n">
-        <v>2.2250738585072e-308</v>
+        <v>0.000000105532711902612</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F4" t="n">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>115511590</v>
+        <v>60988082</v>
       </c>
       <c r="D5" t="n">
-        <v>2.2250738585072e-308</v>
+        <v>0.00108135294945122</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" t="n">
-        <v>24</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>115511593</v>
+        <v>60988080</v>
       </c>
       <c r="D6" t="n">
-        <v>2.2250738585072e-308</v>
+        <v>0.00123317680694213</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F6" t="n">
-        <v>24</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C7" t="n">
-        <v>4788407</v>
+        <v>60988087</v>
       </c>
       <c r="D7" t="n">
-        <v>2.2250738585072e-308</v>
+        <v>0.000000105532711902612</v>
       </c>
       <c r="E7" t="s">
         <v>15</v>
       </c>
       <c r="F7" t="n">
-        <v>6</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1295250</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.00576741093713473</v>
+      </c>
+      <c r="E8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="n">
-        <v>4842011</v>
-      </c>
-      <c r="D8" t="n">
-        <v>2.2250738585072e-308</v>
-      </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
       <c r="F8" t="n">
-        <v>6</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
       <c r="C9" t="n">
-        <v>5271546</v>
+        <v>16306504</v>
       </c>
       <c r="D9" t="n">
-        <v>2.2250738585072e-308</v>
+        <v>0.000222317923706195</v>
       </c>
       <c r="E9" t="s">
         <v>19</v>
       </c>
       <c r="F9" t="n">
-        <v>6</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10">
@@ -1335,1276 +1572,1276 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C10" t="n">
-        <v>61735191</v>
+        <v>16306504</v>
       </c>
       <c r="D10" t="n">
-        <v>2.2250738585072e-308</v>
+        <v>0.000222317923706195</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F10" t="n">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C11" t="n">
-        <v>61735192</v>
+        <v>16306505</v>
       </c>
       <c r="D11" t="n">
-        <v>2.2250738585072e-308</v>
+        <v>0.000222317923706195</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F11" t="n">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C12" t="n">
-        <v>108908961</v>
+        <v>16306505</v>
       </c>
       <c r="D12" t="n">
-        <v>2.2250738585072e-308</v>
+        <v>0.000222317923706195</v>
       </c>
       <c r="E12" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F12" t="n">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C13" t="n">
-        <v>40229756</v>
+        <v>60988241</v>
       </c>
       <c r="D13" t="n">
-        <v>2.2250738585072e-308</v>
+        <v>0.000000102067901019964</v>
       </c>
       <c r="E13" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F13" t="n">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="C14" t="n">
-        <v>23592546</v>
+        <v>60988240</v>
       </c>
       <c r="D14" t="n">
-        <v>2.2250738585072e-308</v>
+        <v>0.0000771544639777133</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F14" t="n">
-        <v>6</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="C15" t="n">
-        <v>51496348</v>
+        <v>60988239</v>
       </c>
       <c r="D15" t="n">
-        <v>2.2250738585072e-308</v>
+        <v>0.0000771544569448945</v>
       </c>
       <c r="E15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" t="n">
         <v>33</v>
-      </c>
-      <c r="F15" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="C16" t="n">
-        <v>30381952</v>
+        <v>60988031</v>
       </c>
       <c r="D16" t="n">
-        <v>2.2250738585072e-308</v>
+        <v>0.000108454617411491</v>
       </c>
       <c r="E16" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F16" t="n">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="C17" t="n">
-        <v>57769549</v>
+        <v>60988035</v>
       </c>
       <c r="D17" t="n">
-        <v>2.2250738585072e-308</v>
+        <v>0.000022238389487339</v>
       </c>
       <c r="E17" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="F17" t="n">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C18" t="n">
-        <v>22020733</v>
+        <v>101280670</v>
       </c>
       <c r="D18" t="n">
-        <v>2.2250738585072e-308</v>
+        <v>0.00000072461268640911</v>
       </c>
       <c r="E18" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F18" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>37356316</v>
+        <v>101280671</v>
       </c>
       <c r="D19" t="n">
-        <v>2.2250738585072e-308</v>
+        <v>0.00000072461268640911</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="F19" t="n">
-        <v>6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C20" t="n">
-        <v>37356363</v>
+        <v>60988228</v>
       </c>
       <c r="D20" t="n">
-        <v>2.2250738585072e-308</v>
+        <v>0.0000000512439828348477</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="F20" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C21" t="n">
-        <v>41117464</v>
+        <v>43824528</v>
       </c>
       <c r="D21" t="n">
-        <v>2.2250738585072e-308</v>
+        <v>0.0000000000486584106340615</v>
       </c>
       <c r="E21" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="F21" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C22" t="n">
-        <v>70114939</v>
+        <v>43824529</v>
       </c>
       <c r="D22" t="n">
-        <v>2.2250738585072e-308</v>
+        <v>0.0000000000486584106340615</v>
       </c>
       <c r="E22" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="F22" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C23" t="n">
-        <v>72869537</v>
+        <v>56987141</v>
       </c>
       <c r="D23" t="n">
-        <v>2.2250738585072e-308</v>
+        <v>0.00146007442944707</v>
       </c>
       <c r="E23" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="F23" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C24" t="n">
-        <v>79212951</v>
+        <v>60988090</v>
       </c>
       <c r="D24" t="n">
-        <v>2.2250738585072e-308</v>
+        <v>0.000000105532708793987</v>
       </c>
       <c r="E24" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="F24" t="n">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="C25" t="n">
-        <v>17970560</v>
+        <v>60988230</v>
       </c>
       <c r="D25" t="n">
-        <v>2.2250738585072e-308</v>
+        <v>0.0000771036439738415</v>
       </c>
       <c r="E25" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F25" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C26" t="n">
-        <v>46390106</v>
+        <v>17970682</v>
       </c>
       <c r="D26" t="n">
-        <v>2.2250738585072e-308</v>
+        <v>0.000211392984490577</v>
       </c>
       <c r="E26" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="F26" t="n">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C27" t="n">
-        <v>46390154</v>
+        <v>47448145</v>
       </c>
       <c r="D27" t="n">
-        <v>2.2250738585072e-308</v>
+        <v>0.000370531541419972</v>
       </c>
       <c r="E27" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="F27" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C28" t="n">
-        <v>47721614</v>
+        <v>47448149</v>
       </c>
       <c r="D28" t="n">
-        <v>2.2250738585072e-308</v>
+        <v>0.00321850437790339</v>
       </c>
       <c r="E28" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="F28" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="B29" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C29" t="n">
-        <v>4791472</v>
+        <v>41345346</v>
       </c>
       <c r="D29" t="n">
-        <v>2.2250738585072e-308</v>
+        <v>0.000000323952388692206</v>
       </c>
       <c r="E29" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="F29" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="C30" t="n">
-        <v>158746250</v>
+        <v>60988074</v>
       </c>
       <c r="D30" t="n">
-        <v>2.2250738585072e-308</v>
+        <v>0.00123342496496925</v>
       </c>
       <c r="E30" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="F30" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="B31" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>165168884</v>
+        <v>155904250</v>
       </c>
       <c r="D31" t="n">
-        <v>2.2250738585072e-308</v>
+        <v>0.00180242033408451</v>
       </c>
       <c r="E31" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="F31" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="B32" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="C32" t="n">
-        <v>208344</v>
+        <v>60988066</v>
       </c>
       <c r="D32" t="n">
-        <v>2.2250738585072e-308</v>
+        <v>0.000111266900460483</v>
       </c>
       <c r="E32" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="F32" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="B33" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="C33" t="n">
-        <v>35234041</v>
+        <v>60988197</v>
       </c>
       <c r="D33" t="n">
-        <v>2.2250738585072e-308</v>
+        <v>0.000196353639436486</v>
       </c>
       <c r="E33" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="F33" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="B34" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="C34" t="n">
-        <v>170550490</v>
+        <v>105156316</v>
       </c>
       <c r="D34" t="n">
         <v>2.2250738585072e-308</v>
       </c>
       <c r="E34" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="F34" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="B35" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="C35" t="n">
-        <v>170550490</v>
+        <v>105156316</v>
       </c>
       <c r="D35" t="n">
         <v>2.2250738585072e-308</v>
       </c>
       <c r="E35" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="F35" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="B36" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="C36" t="n">
-        <v>197666405</v>
+        <v>105156317</v>
       </c>
       <c r="D36" t="n">
         <v>2.2250738585072e-308</v>
       </c>
       <c r="E36" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="F36" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="B37" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="C37" t="n">
-        <v>70056751</v>
+        <v>105156317</v>
       </c>
       <c r="D37" t="n">
         <v>2.2250738585072e-308</v>
       </c>
       <c r="E37" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="F37" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="B38" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="C38" t="n">
-        <v>70056752</v>
+        <v>60988291</v>
       </c>
       <c r="D38" t="n">
-        <v>2.2250738585072e-308</v>
+        <v>0.000636812761246608</v>
       </c>
       <c r="E38" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="F38" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="B39" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="C39" t="n">
-        <v>129118519</v>
+        <v>60988041</v>
       </c>
       <c r="D39" t="n">
-        <v>2.2250738585072e-308</v>
+        <v>0.000216934997963159</v>
       </c>
       <c r="E39" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="F39" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="B40" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="C40" t="n">
-        <v>46780072</v>
+        <v>179846984</v>
       </c>
       <c r="D40" t="n">
-        <v>2.2250738585072e-308</v>
+        <v>0.00103470642751446</v>
       </c>
       <c r="E40" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="F40" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B41" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="C41" t="n">
-        <v>69101513</v>
+        <v>179846984</v>
       </c>
       <c r="D41" t="n">
-        <v>2.2250738585072e-308</v>
+        <v>0.00103470642751446</v>
       </c>
       <c r="E41" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="F41" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="B42" t="s">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="C42" t="n">
-        <v>1340837</v>
+        <v>179846985</v>
       </c>
       <c r="D42" t="n">
-        <v>2.2250738585072e-308</v>
+        <v>0.00103470642751446</v>
       </c>
       <c r="E42" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="F42" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="B43" t="s">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="C43" t="n">
-        <v>140778884</v>
+        <v>179846985</v>
       </c>
       <c r="D43" t="n">
-        <v>2.2250738585072e-308</v>
+        <v>0.00103470642751446</v>
       </c>
       <c r="E43" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="F43" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="B44" t="s">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="C44" t="n">
-        <v>140808954</v>
+        <v>100598553</v>
       </c>
       <c r="D44" t="n">
-        <v>2.2250738585072e-308</v>
+        <v>0.00149293490830171</v>
       </c>
       <c r="E44" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="F44" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="B45" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="C45" t="n">
-        <v>94242167</v>
+        <v>100598553</v>
       </c>
       <c r="D45" t="n">
-        <v>2.2250738585072e-308</v>
+        <v>0.00149293490830171</v>
       </c>
       <c r="E45" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="F45" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>99</v>
+        <v>9</v>
       </c>
       <c r="B46" t="s">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="C46" t="n">
-        <v>132565424</v>
+        <v>60988189</v>
       </c>
       <c r="D46" t="n">
-        <v>2.2250738585072e-308</v>
+        <v>0.000359525867148491</v>
       </c>
       <c r="E46" t="s">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="F46" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>102</v>
+        <v>9</v>
       </c>
       <c r="B47" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="C47" t="n">
-        <v>17461570</v>
+        <v>60987879</v>
       </c>
       <c r="D47" t="n">
-        <v>0.00000000000000077715611723761</v>
+        <v>0.000415497515129148</v>
       </c>
       <c r="E47" t="s">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="F47" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="C48" t="n">
-        <v>70676411</v>
+        <v>60988299</v>
       </c>
       <c r="D48" t="n">
-        <v>0.00000000000000077715611723761</v>
+        <v>0.000434614697356284</v>
       </c>
       <c r="E48" t="s">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="F48" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="B49" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="C49" t="n">
-        <v>35237687</v>
+        <v>70056751</v>
       </c>
       <c r="D49" t="n">
-        <v>0.00000000000000077715611723761</v>
+        <v>2.2250738585072e-308</v>
       </c>
       <c r="E49" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="F49" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="B50" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="C50" t="n">
-        <v>37120472</v>
+        <v>70056752</v>
       </c>
       <c r="D50" t="n">
-        <v>0.00000000000000077715611723761</v>
+        <v>2.2250738585072e-308</v>
       </c>
       <c r="E50" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="F50" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="C51" t="n">
-        <v>111846581</v>
+        <v>60988303</v>
       </c>
       <c r="D51" t="n">
-        <v>0.000000000000000888178419700125</v>
+        <v>0.000161518372205571</v>
       </c>
       <c r="E51" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="F51" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="B52" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="C52" t="n">
-        <v>67974576</v>
+        <v>131038413</v>
       </c>
       <c r="D52" t="n">
-        <v>0.000000000000000888178419700125</v>
+        <v>0.00295787344636889</v>
       </c>
       <c r="E52" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="F52" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="B53" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="C53" t="n">
-        <v>145809749</v>
+        <v>131038414</v>
       </c>
       <c r="D53" t="n">
-        <v>0.000000000000000999200722162641</v>
+        <v>0.00295787344636889</v>
       </c>
       <c r="E53" t="s">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="F53" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="B54" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="C54" t="n">
-        <v>48263916</v>
+        <v>26101488</v>
       </c>
       <c r="D54" t="n">
-        <v>0.00000000000000133226762955019</v>
+        <v>0.00495961463582639</v>
       </c>
       <c r="E54" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="F54" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>119</v>
+        <v>73</v>
       </c>
       <c r="B55" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C55" t="n">
-        <v>42773018</v>
+        <v>26101489</v>
       </c>
       <c r="D55" t="n">
-        <v>0.00000000000000155431223447522</v>
+        <v>0.00495961463582639</v>
       </c>
       <c r="E55" t="s">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="F55" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="B56" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C56" t="n">
-        <v>42773023</v>
+        <v>7459941</v>
       </c>
       <c r="D56" t="n">
-        <v>0.00000000000000155431223447522</v>
+        <v>0.00181022379860252</v>
       </c>
       <c r="E56" t="s">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c r="F56" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>121</v>
+        <v>77</v>
       </c>
       <c r="B57" t="s">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="C57" t="n">
-        <v>35795975</v>
+        <v>44208293</v>
       </c>
       <c r="D57" t="n">
-        <v>0.00000000000000177635683940025</v>
+        <v>0.00221417101612509</v>
       </c>
       <c r="E57" t="s">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="F57" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="B58" t="s">
-        <v>122</v>
+        <v>67</v>
       </c>
       <c r="C58" t="n">
-        <v>35795976</v>
+        <v>32390904</v>
       </c>
       <c r="D58" t="n">
-        <v>0.00000000000000177635683940025</v>
+        <v>0.00468088394124522</v>
       </c>
       <c r="E58" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="F58" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="B59" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="C59" t="n">
-        <v>39130526</v>
+        <v>32390905</v>
       </c>
       <c r="D59" t="n">
-        <v>0.00000000000000199840144432528</v>
+        <v>0.00468088394124522</v>
       </c>
       <c r="E59" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="F59" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="B60" t="s">
+        <v>38</v>
+      </c>
+      <c r="C60" t="n">
+        <v>17970560</v>
+      </c>
+      <c r="D60" t="n">
+        <v>2.2250738585072e-308</v>
+      </c>
+      <c r="E60" t="s">
         <v>82</v>
       </c>
-      <c r="C60" t="n">
-        <v>129118513</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.00000000000000233146835171283</v>
-      </c>
-      <c r="E60" t="s">
-        <v>126</v>
-      </c>
       <c r="F60" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="B61" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="C61" t="n">
-        <v>42363934</v>
+        <v>7338583</v>
       </c>
       <c r="D61" t="n">
-        <v>0.00000000000000466293670342566</v>
+        <v>0.000334545349495952</v>
       </c>
       <c r="E61" t="s">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="F61" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="B62" t="s">
-        <v>122</v>
+        <v>84</v>
       </c>
       <c r="C62" t="n">
-        <v>19466935</v>
+        <v>7338583</v>
       </c>
       <c r="D62" t="n">
-        <v>0.00000000000000532907051820075</v>
+        <v>0.000334545349495952</v>
       </c>
       <c r="E62" t="s">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="F62" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="B63" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="C63" t="n">
-        <v>13001837</v>
+        <v>54582890</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0000000000000113242748511766</v>
+        <v>0.00226583264595226</v>
       </c>
       <c r="E63" t="s">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="F63" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>133</v>
+        <v>90</v>
       </c>
       <c r="B64" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C64" t="n">
-        <v>145029533</v>
+        <v>31556121</v>
       </c>
       <c r="D64" t="n">
-        <v>0.000000000000013988810110277</v>
+        <v>0.00000000776143882497138</v>
       </c>
       <c r="E64" t="s">
-        <v>134</v>
+        <v>91</v>
       </c>
       <c r="F64" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>135</v>
+        <v>9</v>
       </c>
       <c r="B65" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="C65" t="n">
-        <v>65283371</v>
+        <v>60987999</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0000000000000299760216648792</v>
+        <v>0.000115815261265917</v>
       </c>
       <c r="E65" t="s">
-        <v>136</v>
+        <v>92</v>
       </c>
       <c r="F65" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>137</v>
+        <v>9</v>
       </c>
       <c r="B66" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="C66" t="n">
-        <v>191857080</v>
+        <v>60988349</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0000000000000672795152922845</v>
+        <v>0.000535575425442247</v>
       </c>
       <c r="E66" t="s">
-        <v>138</v>
+        <v>93</v>
       </c>
       <c r="F66" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>139</v>
+        <v>94</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C67" t="n">
-        <v>50812732</v>
+        <v>114450098</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0000000000000732747196252603</v>
+        <v>0.0015938834256064</v>
       </c>
       <c r="E67" t="s">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="F67" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>141</v>
+        <v>87</v>
       </c>
       <c r="B68" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C68" t="n">
-        <v>126763574</v>
+        <v>54582889</v>
       </c>
       <c r="D68" t="n">
-        <v>0.000000000000759392548843607</v>
+        <v>0.00226580797589249</v>
       </c>
       <c r="E68" t="s">
-        <v>142</v>
+        <v>96</v>
       </c>
       <c r="F68" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>143</v>
+        <v>97</v>
       </c>
       <c r="B69" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="C69" t="n">
-        <v>43824528</v>
+        <v>153963227</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0000000000486584106340615</v>
+        <v>0.00335411487911519</v>
       </c>
       <c r="E69" t="s">
-        <v>144</v>
+        <v>98</v>
       </c>
       <c r="F69" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>145</v>
+        <v>99</v>
       </c>
       <c r="B70" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="C70" t="n">
-        <v>43824528</v>
+        <v>153963227</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0000000000486584106340615</v>
+        <v>0.00335411487911519</v>
       </c>
       <c r="E70" t="s">
-        <v>144</v>
+        <v>98</v>
       </c>
       <c r="F70" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="B71" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="C71" t="n">
-        <v>43824529</v>
+        <v>90931383</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0000000000486584106340615</v>
+        <v>0.00599953444897294</v>
       </c>
       <c r="E71" t="s">
-        <v>144</v>
+        <v>102</v>
       </c>
       <c r="F71" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>145</v>
+        <v>103</v>
       </c>
       <c r="B72" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="C72" t="n">
-        <v>43824529</v>
+        <v>498776</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0000000000486584106340615</v>
+        <v>0.00640987762410494</v>
       </c>
       <c r="E72" t="s">
-        <v>144</v>
+        <v>104</v>
       </c>
       <c r="F72" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>146</v>
+        <v>105</v>
       </c>
       <c r="B73" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C73" t="n">
-        <v>27561365</v>
+        <v>60738141</v>
       </c>
       <c r="D73" t="n">
-        <v>0.00000000108347331106984</v>
+        <v>0.00000000000000155431223447522</v>
       </c>
       <c r="E73" t="s">
-        <v>147</v>
+        <v>106</v>
       </c>
       <c r="F73" t="n">
         <v>14</v>
@@ -2612,279 +2849,279 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="B74" t="s">
-        <v>122</v>
+        <v>44</v>
       </c>
       <c r="C74" t="n">
-        <v>31556121</v>
+        <v>60738142</v>
       </c>
       <c r="D74" t="n">
-        <v>0.00000000776143882497138</v>
+        <v>0.00000000000000155431223447522</v>
       </c>
       <c r="E74" t="s">
-        <v>149</v>
+        <v>106</v>
       </c>
       <c r="F74" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>150</v>
+        <v>107</v>
       </c>
       <c r="B75" t="s">
-        <v>151</v>
+        <v>108</v>
       </c>
       <c r="C75" t="n">
-        <v>48815676</v>
+        <v>27561365</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0000000084028671798464</v>
+        <v>0.00000000108347331106984</v>
       </c>
       <c r="E75" t="s">
-        <v>152</v>
+        <v>109</v>
       </c>
       <c r="F75" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>153</v>
+        <v>110</v>
       </c>
       <c r="B76" t="s">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="C76" t="n">
-        <v>4247045</v>
+        <v>27561365</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0000000118810694615945</v>
+        <v>0.00000000108347331106984</v>
       </c>
       <c r="E76" t="s">
-        <v>154</v>
+        <v>109</v>
       </c>
       <c r="F76" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>155</v>
+        <v>111</v>
       </c>
       <c r="B77" t="s">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="C77" t="n">
-        <v>101280670</v>
+        <v>61735191</v>
       </c>
       <c r="D77" t="n">
-        <v>0.00000072461268640911</v>
+        <v>2.2250738585072e-308</v>
       </c>
       <c r="E77" t="s">
-        <v>156</v>
+        <v>112</v>
       </c>
       <c r="F77" t="n">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>155</v>
+        <v>113</v>
       </c>
       <c r="B78" t="s">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="C78" t="n">
-        <v>101280671</v>
+        <v>61735191</v>
       </c>
       <c r="D78" t="n">
-        <v>0.00000072461268640911</v>
+        <v>2.2250738585072e-308</v>
       </c>
       <c r="E78" t="s">
-        <v>156</v>
+        <v>112</v>
       </c>
       <c r="F78" t="n">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>157</v>
+        <v>111</v>
       </c>
       <c r="B79" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C79" t="n">
-        <v>110434230</v>
+        <v>61735192</v>
       </c>
       <c r="D79" t="n">
-        <v>0.00000271343617119779</v>
+        <v>2.2250738585072e-308</v>
       </c>
       <c r="E79" t="s">
-        <v>158</v>
+        <v>112</v>
       </c>
       <c r="F79" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>159</v>
+        <v>113</v>
       </c>
       <c r="B80" t="s">
-        <v>160</v>
+        <v>41</v>
       </c>
       <c r="C80" t="n">
-        <v>47010567</v>
+        <v>61735192</v>
       </c>
       <c r="D80" t="n">
-        <v>0.00000628842866290391</v>
+        <v>2.2250738585072e-308</v>
       </c>
       <c r="E80" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="F80" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>162</v>
+        <v>114</v>
       </c>
       <c r="B81" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="C81" t="n">
-        <v>248304779</v>
+        <v>25559063</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0000291871959087198</v>
+        <v>2.2250738585072e-308</v>
       </c>
       <c r="E81" t="s">
-        <v>163</v>
+        <v>115</v>
       </c>
       <c r="F81" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>164</v>
+        <v>114</v>
       </c>
       <c r="B82" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="C82" t="n">
-        <v>117602920</v>
+        <v>25559064</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0000423870214993904</v>
+        <v>2.2250738585072e-308</v>
       </c>
       <c r="E82" t="s">
-        <v>165</v>
+        <v>115</v>
       </c>
       <c r="F82" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>166</v>
+        <v>116</v>
       </c>
       <c r="B83" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="C83" t="n">
-        <v>132937718</v>
+        <v>149867285</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0000439089846782093</v>
+        <v>0.00000000000000166533453693773</v>
       </c>
       <c r="E83" t="s">
-        <v>167</v>
+        <v>118</v>
       </c>
       <c r="F83" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>168</v>
+        <v>116</v>
       </c>
       <c r="B84" t="s">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="C84" t="n">
-        <v>72772528</v>
+        <v>149867286</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0000571697680284977</v>
+        <v>0.00000000000000166533453693773</v>
       </c>
       <c r="E84" t="s">
-        <v>169</v>
+        <v>118</v>
       </c>
       <c r="F84" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>170</v>
+        <v>119</v>
       </c>
       <c r="B85" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="C85" t="n">
-        <v>55220421</v>
+        <v>35795975</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0000718320884712798</v>
+        <v>0.00000000000000177635683940025</v>
       </c>
       <c r="E85" t="s">
-        <v>171</v>
+        <v>120</v>
       </c>
       <c r="F85" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>172</v>
+        <v>119</v>
       </c>
       <c r="B86" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="C86" t="n">
-        <v>113494875</v>
+        <v>35795976</v>
       </c>
       <c r="D86" t="n">
-        <v>0.000130749841690925</v>
+        <v>0.00000000000000177635683940025</v>
       </c>
       <c r="E86" t="s">
-        <v>173</v>
+        <v>120</v>
       </c>
       <c r="F86" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>174</v>
+        <v>121</v>
       </c>
       <c r="B87" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C87" t="n">
-        <v>6772369</v>
+        <v>73309656</v>
       </c>
       <c r="D87" t="n">
-        <v>0.00013440425825495</v>
+        <v>0.000000000000517919040987636</v>
       </c>
       <c r="E87" t="s">
-        <v>175</v>
+        <v>122</v>
       </c>
       <c r="F87" t="n">
         <v>13</v>
@@ -2892,499 +3129,499 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>176</v>
+        <v>123</v>
       </c>
       <c r="B88" t="s">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="C88" t="n">
-        <v>4933310</v>
+        <v>6772369</v>
       </c>
       <c r="D88" t="n">
-        <v>0.000173246037090791</v>
+        <v>0.00013440425825495</v>
       </c>
       <c r="E88" t="s">
-        <v>177</v>
+        <v>124</v>
       </c>
       <c r="F88" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>178</v>
+        <v>125</v>
       </c>
       <c r="B89" t="s">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="C89" t="n">
-        <v>88108326</v>
+        <v>52029960</v>
       </c>
       <c r="D89" t="n">
-        <v>0.000175268845926557</v>
+        <v>0.000280776373836278</v>
       </c>
       <c r="E89" t="s">
-        <v>179</v>
+        <v>126</v>
       </c>
       <c r="F89" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
       <c r="B90" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="C90" t="n">
-        <v>164903710</v>
+        <v>18940601</v>
       </c>
       <c r="D90" t="n">
-        <v>0.000200062600764661</v>
+        <v>0.00103902228013675</v>
       </c>
       <c r="E90" t="s">
-        <v>181</v>
+        <v>128</v>
       </c>
       <c r="F90" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>53</v>
+        <v>129</v>
       </c>
       <c r="B91" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="C91" t="n">
-        <v>17970682</v>
+        <v>1588276</v>
       </c>
       <c r="D91" t="n">
-        <v>0.000211392984490577</v>
+        <v>0.00159925588825949</v>
       </c>
       <c r="E91" t="s">
-        <v>182</v>
+        <v>130</v>
       </c>
       <c r="F91" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>183</v>
+        <v>131</v>
       </c>
       <c r="B92" t="s">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c r="C92" t="n">
-        <v>16306504</v>
+        <v>39605969</v>
       </c>
       <c r="D92" t="n">
-        <v>0.000222317923706195</v>
+        <v>0.00276909004960335</v>
       </c>
       <c r="E92" t="s">
-        <v>184</v>
+        <v>133</v>
       </c>
       <c r="F92" t="n">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>183</v>
+        <v>134</v>
       </c>
       <c r="B93" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C93" t="n">
-        <v>16306505</v>
+        <v>49961950</v>
       </c>
       <c r="D93" t="n">
-        <v>0.000222317923706195</v>
+        <v>0.00516949063481209</v>
       </c>
       <c r="E93" t="s">
-        <v>184</v>
+        <v>135</v>
       </c>
       <c r="F93" t="n">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>185</v>
+        <v>136</v>
       </c>
       <c r="B94" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="C94" t="n">
-        <v>45973318</v>
+        <v>49961950</v>
       </c>
       <c r="D94" t="n">
-        <v>0.000223811701018595</v>
+        <v>0.00516949063481209</v>
       </c>
       <c r="E94" t="s">
-        <v>186</v>
+        <v>135</v>
       </c>
       <c r="F94" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>187</v>
+        <v>137</v>
       </c>
       <c r="B95" t="s">
-        <v>40</v>
+        <v>138</v>
       </c>
       <c r="C95" t="n">
-        <v>7338583</v>
+        <v>53173817</v>
       </c>
       <c r="D95" t="n">
-        <v>0.000334545349495952</v>
+        <v>0.00700906707441928</v>
       </c>
       <c r="E95" t="s">
-        <v>188</v>
+        <v>139</v>
       </c>
       <c r="F95" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>189</v>
+        <v>140</v>
       </c>
       <c r="B96" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="C96" t="n">
-        <v>7338583</v>
+        <v>22020733</v>
       </c>
       <c r="D96" t="n">
-        <v>0.000334545349495952</v>
+        <v>2.2250738585072e-308</v>
       </c>
       <c r="E96" t="s">
-        <v>188</v>
+        <v>141</v>
       </c>
       <c r="F96" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>190</v>
+        <v>142</v>
       </c>
       <c r="B97" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="C97" t="n">
-        <v>203274977</v>
+        <v>140808954</v>
       </c>
       <c r="D97" t="n">
-        <v>0.000341360535880408</v>
+        <v>2.2250738585072e-308</v>
       </c>
       <c r="E97" t="s">
-        <v>191</v>
+        <v>143</v>
       </c>
       <c r="F97" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>192</v>
+        <v>144</v>
       </c>
       <c r="B98" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="C98" t="n">
-        <v>6845292</v>
+        <v>25122924</v>
       </c>
       <c r="D98" t="n">
-        <v>0.000353236110639199</v>
+        <v>0.00312299476881073</v>
       </c>
       <c r="E98" t="s">
-        <v>193</v>
+        <v>145</v>
       </c>
       <c r="F98" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>194</v>
+        <v>146</v>
       </c>
       <c r="B99" t="s">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="C99" t="n">
-        <v>91933357</v>
+        <v>68485356</v>
       </c>
       <c r="D99" t="n">
-        <v>0.000361652499394682</v>
+        <v>0.00489297720702164</v>
       </c>
       <c r="E99" t="s">
-        <v>195</v>
+        <v>147</v>
       </c>
       <c r="F99" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
       <c r="B100" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C100" t="n">
-        <v>203275106</v>
+        <v>198318144</v>
       </c>
       <c r="D100" t="n">
-        <v>0.000429151285131102</v>
+        <v>0.0071084848785623</v>
       </c>
       <c r="E100" t="s">
-        <v>196</v>
+        <v>149</v>
       </c>
       <c r="F100" t="n">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="B101" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="C101" t="n">
-        <v>203274956</v>
+        <v>14998077</v>
       </c>
       <c r="D101" t="n">
-        <v>0.00049778867445327</v>
+        <v>0.00000000000000244249065417534</v>
       </c>
       <c r="E101" t="s">
-        <v>197</v>
+        <v>151</v>
       </c>
       <c r="F101" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>198</v>
+        <v>152</v>
       </c>
       <c r="B102" t="s">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="C102" t="n">
-        <v>98886782</v>
+        <v>45973318</v>
       </c>
       <c r="D102" t="n">
-        <v>0.000547995561891335</v>
+        <v>0.000223811701018595</v>
       </c>
       <c r="E102" t="s">
-        <v>199</v>
+        <v>153</v>
       </c>
       <c r="F102" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>190</v>
+        <v>154</v>
       </c>
       <c r="B103" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="C103" t="n">
-        <v>203275105</v>
+        <v>40494854</v>
       </c>
       <c r="D103" t="n">
-        <v>0.000563397263758647</v>
+        <v>0.00452106385013584</v>
       </c>
       <c r="E103" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
       <c r="F103" t="n">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>190</v>
+        <v>156</v>
       </c>
       <c r="B104" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="C104" t="n">
-        <v>203275085</v>
+        <v>1653026</v>
       </c>
       <c r="D104" t="n">
-        <v>0.000574146354247351</v>
+        <v>0.00703361051418305</v>
       </c>
       <c r="E104" t="s">
-        <v>201</v>
+        <v>157</v>
       </c>
       <c r="F104" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>202</v>
+        <v>158</v>
       </c>
       <c r="B105" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="C105" t="n">
-        <v>46366610</v>
+        <v>41117464</v>
       </c>
       <c r="D105" t="n">
-        <v>0.000606529380926202</v>
+        <v>2.2250738585072e-308</v>
       </c>
       <c r="E105" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
       <c r="F105" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
       <c r="B106" t="s">
-        <v>54</v>
+        <v>161</v>
       </c>
       <c r="C106" t="n">
-        <v>58978371</v>
+        <v>36156403</v>
       </c>
       <c r="D106" t="n">
-        <v>0.000635076913903965</v>
+        <v>2.2250738585072e-308</v>
       </c>
       <c r="E106" t="s">
-        <v>205</v>
+        <v>162</v>
       </c>
       <c r="F106" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>206</v>
+        <v>163</v>
       </c>
       <c r="B107" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="C107" t="n">
-        <v>102188654</v>
+        <v>197666405</v>
       </c>
       <c r="D107" t="n">
-        <v>0.000779076362585007</v>
+        <v>2.2250738585072e-308</v>
       </c>
       <c r="E107" t="s">
-        <v>207</v>
+        <v>164</v>
       </c>
       <c r="F107" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>208</v>
+        <v>165</v>
       </c>
       <c r="B108" t="s">
-        <v>209</v>
+        <v>166</v>
       </c>
       <c r="C108" t="n">
-        <v>14118349</v>
+        <v>48815676</v>
       </c>
       <c r="D108" t="n">
-        <v>0.000784659755596717</v>
+        <v>0.0000000084028671798464</v>
       </c>
       <c r="E108" t="s">
-        <v>210</v>
+        <v>167</v>
       </c>
       <c r="F108" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="B109" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C109" t="n">
-        <v>4247060</v>
+        <v>248304779</v>
       </c>
       <c r="D109" t="n">
-        <v>0.000799872389278811</v>
+        <v>0.0000291871959087198</v>
       </c>
       <c r="E109" t="s">
-        <v>211</v>
+        <v>169</v>
       </c>
       <c r="F109" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>212</v>
+        <v>170</v>
       </c>
       <c r="B110" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="C110" t="n">
-        <v>179846984</v>
+        <v>98886782</v>
       </c>
       <c r="D110" t="n">
-        <v>0.00103470642751446</v>
+        <v>0.000547995561891335</v>
       </c>
       <c r="E110" t="s">
-        <v>213</v>
+        <v>171</v>
       </c>
       <c r="F110" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>212</v>
+        <v>172</v>
       </c>
       <c r="B111" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="C111" t="n">
-        <v>179846985</v>
+        <v>38574332</v>
       </c>
       <c r="D111" t="n">
-        <v>0.00103470642751446</v>
+        <v>0.000590161901223074</v>
       </c>
       <c r="E111" t="s">
-        <v>213</v>
+        <v>173</v>
       </c>
       <c r="F111" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>135</v>
+        <v>174</v>
       </c>
       <c r="B112" t="s">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="C112" t="n">
-        <v>65283490</v>
+        <v>122135048</v>
       </c>
       <c r="D112" t="n">
-        <v>0.00123181486091006</v>
+        <v>0.00112978803040331</v>
       </c>
       <c r="E112" t="s">
-        <v>214</v>
+        <v>175</v>
       </c>
       <c r="F112" t="n">
         <v>10</v>
@@ -3392,279 +3629,279 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="B113" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C113" t="n">
-        <v>100598553</v>
+        <v>65283490</v>
       </c>
       <c r="D113" t="n">
-        <v>0.00149293490830171</v>
+        <v>0.00123181486091006</v>
       </c>
       <c r="E113" t="s">
-        <v>216</v>
+        <v>177</v>
       </c>
       <c r="F113" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>217</v>
+        <v>178</v>
       </c>
       <c r="B114" t="s">
-        <v>54</v>
+        <v>161</v>
       </c>
       <c r="C114" t="n">
-        <v>7459941</v>
+        <v>32581032</v>
       </c>
       <c r="D114" t="n">
-        <v>0.00181022379860252</v>
+        <v>0.00269783060742257</v>
       </c>
       <c r="E114" t="s">
-        <v>218</v>
+        <v>179</v>
       </c>
       <c r="F114" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
       <c r="B115" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
       <c r="C115" t="n">
-        <v>16804487</v>
+        <v>145826840</v>
       </c>
       <c r="D115" t="n">
-        <v>0.00209746345805384</v>
+        <v>0.0031512955465316</v>
       </c>
       <c r="E115" t="s">
-        <v>220</v>
+        <v>181</v>
       </c>
       <c r="F115" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B116" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="C116" t="n">
-        <v>203275080</v>
+        <v>3261853</v>
       </c>
       <c r="D116" t="n">
-        <v>0.00211238323963003</v>
+        <v>0.00794265597979249</v>
       </c>
       <c r="E116" t="s">
-        <v>221</v>
+        <v>183</v>
       </c>
       <c r="F116" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>222</v>
+        <v>184</v>
       </c>
       <c r="B117" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="C117" t="n">
-        <v>32581032</v>
+        <v>108908961</v>
       </c>
       <c r="D117" t="n">
-        <v>0.00269783060742257</v>
+        <v>2.2250738585072e-308</v>
       </c>
       <c r="E117" t="s">
-        <v>223</v>
+        <v>185</v>
       </c>
       <c r="F117" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>224</v>
+        <v>186</v>
       </c>
       <c r="B118" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="C118" t="n">
-        <v>248520570</v>
+        <v>40229756</v>
       </c>
       <c r="D118" t="n">
-        <v>0.00276250708734682</v>
+        <v>2.2250738585072e-308</v>
       </c>
       <c r="E118" t="s">
-        <v>225</v>
+        <v>187</v>
       </c>
       <c r="F118" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>226</v>
+        <v>188</v>
       </c>
       <c r="B119" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C119" t="n">
-        <v>39605969</v>
+        <v>12010009</v>
       </c>
       <c r="D119" t="n">
-        <v>0.00276909004960335</v>
+        <v>2.2250738585072e-308</v>
       </c>
       <c r="E119" t="s">
-        <v>227</v>
+        <v>189</v>
       </c>
       <c r="F119" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>228</v>
+        <v>190</v>
       </c>
       <c r="B120" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="C120" t="n">
-        <v>25122924</v>
+        <v>70114939</v>
       </c>
       <c r="D120" t="n">
-        <v>0.00312299476881073</v>
+        <v>2.2250738585072e-308</v>
       </c>
       <c r="E120" t="s">
-        <v>229</v>
+        <v>191</v>
       </c>
       <c r="F120" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>230</v>
+        <v>192</v>
       </c>
       <c r="B121" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="C121" t="n">
-        <v>145826840</v>
+        <v>145809749</v>
       </c>
       <c r="D121" t="n">
-        <v>0.0031512955465316</v>
+        <v>0.000000000000000999200722162641</v>
       </c>
       <c r="E121" t="s">
-        <v>231</v>
+        <v>193</v>
       </c>
       <c r="F121" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="B122" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C122" t="n">
-        <v>153963227</v>
+        <v>126763574</v>
       </c>
       <c r="D122" t="n">
-        <v>0.00335411487911519</v>
+        <v>0.000000000000759392548843607</v>
       </c>
       <c r="E122" t="s">
-        <v>233</v>
+        <v>195</v>
       </c>
       <c r="F122" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="B123" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="C123" t="n">
-        <v>153963227</v>
+        <v>4247045</v>
       </c>
       <c r="D123" t="n">
-        <v>0.00335411487911519</v>
+        <v>0.0000000118810674631931</v>
       </c>
       <c r="E123" t="s">
-        <v>233</v>
+        <v>197</v>
       </c>
       <c r="F123" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>235</v>
+        <v>198</v>
       </c>
       <c r="B124" t="s">
-        <v>14</v>
+        <v>161</v>
       </c>
       <c r="C124" t="n">
-        <v>60609535</v>
+        <v>33464196</v>
       </c>
       <c r="D124" t="n">
-        <v>0.00338967234449616</v>
+        <v>0.000000187768688153511</v>
       </c>
       <c r="E124" t="s">
-        <v>236</v>
+        <v>199</v>
       </c>
       <c r="F124" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>237</v>
+        <v>200</v>
       </c>
       <c r="B125" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="C125" t="n">
-        <v>38325300</v>
+        <v>45004586</v>
       </c>
       <c r="D125" t="n">
-        <v>0.00349086819972988</v>
+        <v>0.0000976100962372106</v>
       </c>
       <c r="E125" t="s">
-        <v>238</v>
+        <v>201</v>
       </c>
       <c r="F125" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>239</v>
+        <v>202</v>
       </c>
       <c r="B126" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C126" t="n">
-        <v>50269896</v>
+        <v>46366610</v>
       </c>
       <c r="D126" t="n">
-        <v>0.00399523370209753</v>
+        <v>0.000606529380926202</v>
       </c>
       <c r="E126" t="s">
-        <v>240</v>
+        <v>203</v>
       </c>
       <c r="F126" t="n">
         <v>9</v>
@@ -3672,19 +3909,19 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
       <c r="B127" t="s">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="C127" t="n">
-        <v>100026858</v>
+        <v>46366610</v>
       </c>
       <c r="D127" t="n">
-        <v>0.00406895869700363</v>
+        <v>0.000606529380926202</v>
       </c>
       <c r="E127" t="s">
-        <v>242</v>
+        <v>203</v>
       </c>
       <c r="F127" t="n">
         <v>9</v>
@@ -3692,302 +3929,1602 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>243</v>
+        <v>196</v>
       </c>
       <c r="B128" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="C128" t="n">
-        <v>40494854</v>
+        <v>4247060</v>
       </c>
       <c r="D128" t="n">
-        <v>0.00452106385013584</v>
+        <v>0.000799872389278811</v>
       </c>
       <c r="E128" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="F128" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="B129" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="C129" t="n">
-        <v>32390904</v>
+        <v>50269896</v>
       </c>
       <c r="D129" t="n">
-        <v>0.00468088394124522</v>
+        <v>0.00399523370209753</v>
       </c>
       <c r="E129" t="s">
-        <v>246</v>
+        <v>207</v>
       </c>
       <c r="F129" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>245</v>
+        <v>208</v>
       </c>
       <c r="B130" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="C130" t="n">
-        <v>32390905</v>
+        <v>50269896</v>
       </c>
       <c r="D130" t="n">
-        <v>0.00468088394124522</v>
+        <v>0.00399523370209753</v>
       </c>
       <c r="E130" t="s">
-        <v>246</v>
+        <v>207</v>
       </c>
       <c r="F130" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="B131" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="C131" t="n">
-        <v>68485356</v>
+        <v>100026858</v>
       </c>
       <c r="D131" t="n">
-        <v>0.00489297720702164</v>
+        <v>0.00406895869700363</v>
       </c>
       <c r="E131" t="s">
-        <v>248</v>
+        <v>210</v>
       </c>
       <c r="F131" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>249</v>
+        <v>211</v>
       </c>
       <c r="B132" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C132" t="n">
-        <v>49961950</v>
+        <v>118992187</v>
       </c>
       <c r="D132" t="n">
-        <v>0.00516949063481209</v>
+        <v>0.00523791722668066</v>
       </c>
       <c r="E132" t="s">
-        <v>250</v>
+        <v>212</v>
       </c>
       <c r="F132" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>251</v>
+        <v>213</v>
       </c>
       <c r="B133" t="s">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="C133" t="n">
-        <v>118992187</v>
+        <v>72869537</v>
       </c>
       <c r="D133" t="n">
-        <v>0.00523791722668066</v>
+        <v>2.2250738585072e-308</v>
       </c>
       <c r="E133" t="s">
-        <v>252</v>
+        <v>214</v>
       </c>
       <c r="F133" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>253</v>
+        <v>215</v>
       </c>
       <c r="B134" t="s">
-        <v>97</v>
+        <v>216</v>
       </c>
       <c r="C134" t="n">
-        <v>67579659</v>
+        <v>46707861</v>
       </c>
       <c r="D134" t="n">
-        <v>0.00526476415483357</v>
+        <v>2.2250738585072e-308</v>
       </c>
       <c r="E134" t="s">
-        <v>254</v>
+        <v>217</v>
       </c>
       <c r="F134" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>255</v>
+        <v>218</v>
       </c>
       <c r="B135" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="C135" t="n">
-        <v>67579659</v>
+        <v>170550490</v>
       </c>
       <c r="D135" t="n">
-        <v>0.00526476415483357</v>
+        <v>2.2250738585072e-308</v>
       </c>
       <c r="E135" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="F135" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>256</v>
+        <v>220</v>
       </c>
       <c r="B136" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="C136" t="n">
-        <v>90931383</v>
+        <v>170550490</v>
       </c>
       <c r="D136" t="n">
-        <v>0.00599953444897294</v>
+        <v>2.2250738585072e-308</v>
       </c>
       <c r="E136" t="s">
-        <v>257</v>
+        <v>219</v>
       </c>
       <c r="F136" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="B137" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C137" t="n">
-        <v>498776</v>
+        <v>165560096</v>
       </c>
       <c r="D137" t="n">
-        <v>0.00640987762410494</v>
+        <v>2.2250738585072e-308</v>
       </c>
       <c r="E137" t="s">
-        <v>259</v>
+        <v>222</v>
       </c>
       <c r="F137" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>260</v>
+        <v>223</v>
       </c>
       <c r="B138" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C138" t="n">
-        <v>53173817</v>
+        <v>105603557</v>
       </c>
       <c r="D138" t="n">
-        <v>0.00700906707441928</v>
+        <v>2.2250738585072e-308</v>
       </c>
       <c r="E138" t="s">
-        <v>261</v>
+        <v>224</v>
       </c>
       <c r="F138" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>262</v>
+        <v>225</v>
       </c>
       <c r="B139" t="s">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="C139" t="n">
-        <v>198318144</v>
+        <v>111846581</v>
       </c>
       <c r="D139" t="n">
-        <v>0.0071084848785623</v>
+        <v>0.000000000000000888178419700125</v>
       </c>
       <c r="E139" t="s">
-        <v>263</v>
+        <v>226</v>
       </c>
       <c r="F139" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>264</v>
+        <v>227</v>
       </c>
       <c r="B140" t="s">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="C140" t="n">
-        <v>70576152</v>
+        <v>111846581</v>
       </c>
       <c r="D140" t="n">
-        <v>0.00718367509499951</v>
+        <v>0.000000000000000888178419700125</v>
       </c>
       <c r="E140" t="s">
-        <v>265</v>
+        <v>226</v>
       </c>
       <c r="F140" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>264</v>
+        <v>228</v>
       </c>
       <c r="B141" t="s">
-        <v>97</v>
+        <v>33</v>
       </c>
       <c r="C141" t="n">
-        <v>70576151</v>
+        <v>67974576</v>
       </c>
       <c r="D141" t="n">
-        <v>0.00776444734157833</v>
+        <v>0.000000000000000888178419700125</v>
       </c>
       <c r="E141" t="s">
-        <v>266</v>
+        <v>229</v>
       </c>
       <c r="F141" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
+        <v>230</v>
+      </c>
+      <c r="B142" t="s">
+        <v>88</v>
+      </c>
+      <c r="C142" t="n">
+        <v>110434230</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0.00000271343617119779</v>
+      </c>
+      <c r="E142" t="s">
+        <v>231</v>
+      </c>
+      <c r="F142" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>232</v>
+      </c>
+      <c r="B143" t="s">
+        <v>88</v>
+      </c>
+      <c r="C143" t="n">
+        <v>110434230</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0.00000271343617119779</v>
+      </c>
+      <c r="E143" t="s">
+        <v>231</v>
+      </c>
+      <c r="F143" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>233</v>
+      </c>
+      <c r="B144" t="s">
+        <v>30</v>
+      </c>
+      <c r="C144" t="n">
+        <v>117602920</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0.0000423870214993904</v>
+      </c>
+      <c r="E144" t="s">
+        <v>234</v>
+      </c>
+      <c r="F144" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>235</v>
+      </c>
+      <c r="B145" t="s">
+        <v>84</v>
+      </c>
+      <c r="C145" t="n">
+        <v>72772528</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.0000571697680284977</v>
+      </c>
+      <c r="E145" t="s">
+        <v>236</v>
+      </c>
+      <c r="F145" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>237</v>
+      </c>
+      <c r="B146" t="s">
+        <v>84</v>
+      </c>
+      <c r="C146" t="n">
+        <v>72772528</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.0000571697680284977</v>
+      </c>
+      <c r="E146" t="s">
+        <v>236</v>
+      </c>
+      <c r="F146" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>238</v>
+      </c>
+      <c r="B147" t="s">
+        <v>30</v>
+      </c>
+      <c r="C147" t="n">
+        <v>158751188</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0.000406924540334974</v>
+      </c>
+      <c r="E147" t="s">
+        <v>239</v>
+      </c>
+      <c r="F147" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>240</v>
+      </c>
+      <c r="B148" t="s">
+        <v>132</v>
+      </c>
+      <c r="C148" t="n">
+        <v>73668787</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.0036668801855575</v>
+      </c>
+      <c r="E148" t="s">
+        <v>241</v>
+      </c>
+      <c r="F148" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>242</v>
+      </c>
+      <c r="B149" t="s">
+        <v>52</v>
+      </c>
+      <c r="C149" t="n">
+        <v>104402045</v>
+      </c>
+      <c r="D149" t="n">
+        <v>2.2250738585072e-308</v>
+      </c>
+      <c r="E149" t="s">
+        <v>243</v>
+      </c>
+      <c r="F149" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>244</v>
+      </c>
+      <c r="B150" t="s">
+        <v>41</v>
+      </c>
+      <c r="C150" t="n">
+        <v>124981865</v>
+      </c>
+      <c r="D150" t="n">
+        <v>2.2250738585072e-308</v>
+      </c>
+      <c r="E150" t="s">
+        <v>245</v>
+      </c>
+      <c r="F150" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>246</v>
+      </c>
+      <c r="B151" t="s">
+        <v>108</v>
+      </c>
+      <c r="C151" t="n">
+        <v>30381952</v>
+      </c>
+      <c r="D151" t="n">
+        <v>2.2250738585072e-308</v>
+      </c>
+      <c r="E151" t="s">
+        <v>247</v>
+      </c>
+      <c r="F151" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>248</v>
+      </c>
+      <c r="B152" t="s">
+        <v>108</v>
+      </c>
+      <c r="C152" t="n">
+        <v>30381952</v>
+      </c>
+      <c r="D152" t="n">
+        <v>2.2250738585072e-308</v>
+      </c>
+      <c r="E152" t="s">
+        <v>247</v>
+      </c>
+      <c r="F152" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>249</v>
+      </c>
+      <c r="B153" t="s">
+        <v>38</v>
+      </c>
+      <c r="C153" t="n">
+        <v>46390154</v>
+      </c>
+      <c r="D153" t="n">
+        <v>2.2250738585072e-308</v>
+      </c>
+      <c r="E153" t="s">
+        <v>250</v>
+      </c>
+      <c r="F153" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>251</v>
+      </c>
+      <c r="B154" t="s">
+        <v>38</v>
+      </c>
+      <c r="C154" t="n">
+        <v>4791472</v>
+      </c>
+      <c r="D154" t="n">
+        <v>2.2250738585072e-308</v>
+      </c>
+      <c r="E154" t="s">
+        <v>252</v>
+      </c>
+      <c r="F154" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>253</v>
+      </c>
+      <c r="B155" t="s">
+        <v>7</v>
+      </c>
+      <c r="C155" t="n">
+        <v>140778884</v>
+      </c>
+      <c r="D155" t="n">
+        <v>2.2250738585072e-308</v>
+      </c>
+      <c r="E155" t="s">
+        <v>254</v>
+      </c>
+      <c r="F155" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>255</v>
+      </c>
+      <c r="B156" t="s">
+        <v>132</v>
+      </c>
+      <c r="C156" t="n">
+        <v>141676917</v>
+      </c>
+      <c r="D156" t="n">
+        <v>2.2250738585072e-308</v>
+      </c>
+      <c r="E156" t="s">
+        <v>256</v>
+      </c>
+      <c r="F156" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>257</v>
+      </c>
+      <c r="B157" t="s">
+        <v>33</v>
+      </c>
+      <c r="C157" t="n">
+        <v>132059674</v>
+      </c>
+      <c r="D157" t="n">
+        <v>2.2250738585072e-308</v>
+      </c>
+      <c r="E157" t="s">
+        <v>258</v>
+      </c>
+      <c r="F157" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>259</v>
+      </c>
+      <c r="B158" t="s">
+        <v>71</v>
+      </c>
+      <c r="C158" t="n">
+        <v>132565424</v>
+      </c>
+      <c r="D158" t="n">
+        <v>2.2250738585072e-308</v>
+      </c>
+      <c r="E158" t="s">
+        <v>260</v>
+      </c>
+      <c r="F158" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>261</v>
+      </c>
+      <c r="B159" t="s">
+        <v>71</v>
+      </c>
+      <c r="C159" t="n">
+        <v>37120472</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0.00000000000000077715611723761</v>
+      </c>
+      <c r="E159" t="s">
+        <v>262</v>
+      </c>
+      <c r="F159" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>263</v>
+      </c>
+      <c r="B160" t="s">
+        <v>132</v>
+      </c>
+      <c r="C160" t="n">
+        <v>132937718</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0.0000439089846742124</v>
+      </c>
+      <c r="E160" t="s">
+        <v>264</v>
+      </c>
+      <c r="F160" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>265</v>
+      </c>
+      <c r="B161" t="s">
+        <v>88</v>
+      </c>
+      <c r="C161" t="n">
+        <v>55220421</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0.0000718320884679491</v>
+      </c>
+      <c r="E161" t="s">
+        <v>266</v>
+      </c>
+      <c r="F161" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
         <v>267</v>
       </c>
-      <c r="B142" t="s">
-        <v>160</v>
-      </c>
-      <c r="C142" t="n">
-        <v>3261853</v>
-      </c>
-      <c r="D142" t="n">
-        <v>0.00794265597979249</v>
-      </c>
-      <c r="E142" t="s">
+      <c r="B162" t="s">
+        <v>18</v>
+      </c>
+      <c r="C162" t="n">
+        <v>88108326</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0.000175268845923227</v>
+      </c>
+      <c r="E162" t="s">
         <v>268</v>
       </c>
-      <c r="F142" t="n">
+      <c r="F162" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>9</v>
+      </c>
+      <c r="B163" t="s">
         <v>10</v>
+      </c>
+      <c r="C163" t="n">
+        <v>60988279</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0.000188133098720678</v>
+      </c>
+      <c r="E163" t="s">
+        <v>269</v>
+      </c>
+      <c r="F163" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>270</v>
+      </c>
+      <c r="B164" t="s">
+        <v>108</v>
+      </c>
+      <c r="C164" t="n">
+        <v>15982556</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0.000262866994804267</v>
+      </c>
+      <c r="E164" t="s">
+        <v>271</v>
+      </c>
+      <c r="F164" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>272</v>
+      </c>
+      <c r="B165" t="s">
+        <v>30</v>
+      </c>
+      <c r="C165" t="n">
+        <v>6845292</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0.000353236110639199</v>
+      </c>
+      <c r="E165" t="s">
+        <v>273</v>
+      </c>
+      <c r="F165" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>274</v>
+      </c>
+      <c r="B166" t="s">
+        <v>71</v>
+      </c>
+      <c r="C166" t="n">
+        <v>91933357</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0.000361652499394682</v>
+      </c>
+      <c r="E166" t="s">
+        <v>275</v>
+      </c>
+      <c r="F166" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>276</v>
+      </c>
+      <c r="B167" t="s">
+        <v>38</v>
+      </c>
+      <c r="C167" t="n">
+        <v>58978371</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0.000635076913903965</v>
+      </c>
+      <c r="E167" t="s">
+        <v>277</v>
+      </c>
+      <c r="F167" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>278</v>
+      </c>
+      <c r="B168" t="s">
+        <v>7</v>
+      </c>
+      <c r="C168" t="n">
+        <v>89705746</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0.00122821747354829</v>
+      </c>
+      <c r="E168" t="s">
+        <v>279</v>
+      </c>
+      <c r="F168" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>280</v>
+      </c>
+      <c r="B169" t="s">
+        <v>30</v>
+      </c>
+      <c r="C169" t="n">
+        <v>247979531</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0.00125945656719118</v>
+      </c>
+      <c r="E169" t="s">
+        <v>281</v>
+      </c>
+      <c r="F169" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>282</v>
+      </c>
+      <c r="B170" t="s">
+        <v>166</v>
+      </c>
+      <c r="C170" t="n">
+        <v>16804487</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0.00209746345805317</v>
+      </c>
+      <c r="E170" t="s">
+        <v>283</v>
+      </c>
+      <c r="F170" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>284</v>
+      </c>
+      <c r="B171" t="s">
+        <v>30</v>
+      </c>
+      <c r="C171" t="n">
+        <v>248520570</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0.00276250708734682</v>
+      </c>
+      <c r="E171" t="s">
+        <v>285</v>
+      </c>
+      <c r="F171" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>286</v>
+      </c>
+      <c r="B172" t="s">
+        <v>216</v>
+      </c>
+      <c r="C172" t="n">
+        <v>32120110</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0.00294314690524444</v>
+      </c>
+      <c r="E172" t="s">
+        <v>287</v>
+      </c>
+      <c r="F172" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>288</v>
+      </c>
+      <c r="B173" t="s">
+        <v>41</v>
+      </c>
+      <c r="C173" t="n">
+        <v>60609535</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0.00338967234449616</v>
+      </c>
+      <c r="E173" t="s">
+        <v>289</v>
+      </c>
+      <c r="F173" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>290</v>
+      </c>
+      <c r="B174" t="s">
+        <v>30</v>
+      </c>
+      <c r="C174" t="n">
+        <v>38325300</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0.00349086819972988</v>
+      </c>
+      <c r="E174" t="s">
+        <v>291</v>
+      </c>
+      <c r="F174" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>292</v>
+      </c>
+      <c r="B175" t="s">
+        <v>41</v>
+      </c>
+      <c r="C175" t="n">
+        <v>19082699</v>
+      </c>
+      <c r="D175" t="n">
+        <v>2.2250738585072e-308</v>
+      </c>
+      <c r="E175" t="s">
+        <v>293</v>
+      </c>
+      <c r="F175" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>294</v>
+      </c>
+      <c r="B176" t="s">
+        <v>41</v>
+      </c>
+      <c r="C176" t="n">
+        <v>48263916</v>
+      </c>
+      <c r="D176" t="n">
+        <v>2.2250738585072e-308</v>
+      </c>
+      <c r="E176" t="s">
+        <v>295</v>
+      </c>
+      <c r="F176" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>296</v>
+      </c>
+      <c r="B177" t="s">
+        <v>41</v>
+      </c>
+      <c r="C177" t="n">
+        <v>4842011</v>
+      </c>
+      <c r="D177" t="n">
+        <v>2.2250738585072e-308</v>
+      </c>
+      <c r="E177" t="s">
+        <v>297</v>
+      </c>
+      <c r="F177" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>298</v>
+      </c>
+      <c r="B178" t="s">
+        <v>41</v>
+      </c>
+      <c r="C178" t="n">
+        <v>5271546</v>
+      </c>
+      <c r="D178" t="n">
+        <v>2.2250738585072e-308</v>
+      </c>
+      <c r="E178" t="s">
+        <v>299</v>
+      </c>
+      <c r="F178" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>300</v>
+      </c>
+      <c r="B179" t="s">
+        <v>138</v>
+      </c>
+      <c r="C179" t="n">
+        <v>23592546</v>
+      </c>
+      <c r="D179" t="n">
+        <v>2.2250738585072e-308</v>
+      </c>
+      <c r="E179" t="s">
+        <v>301</v>
+      </c>
+      <c r="F179" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>302</v>
+      </c>
+      <c r="B180" t="s">
+        <v>108</v>
+      </c>
+      <c r="C180" t="n">
+        <v>57769549</v>
+      </c>
+      <c r="D180" t="n">
+        <v>2.2250738585072e-308</v>
+      </c>
+      <c r="E180" t="s">
+        <v>303</v>
+      </c>
+      <c r="F180" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>304</v>
+      </c>
+      <c r="B181" t="s">
+        <v>84</v>
+      </c>
+      <c r="C181" t="n">
+        <v>37356316</v>
+      </c>
+      <c r="D181" t="n">
+        <v>2.2250738585072e-308</v>
+      </c>
+      <c r="E181" t="s">
+        <v>305</v>
+      </c>
+      <c r="F181" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>306</v>
+      </c>
+      <c r="B182" t="s">
+        <v>84</v>
+      </c>
+      <c r="C182" t="n">
+        <v>37356316</v>
+      </c>
+      <c r="D182" t="n">
+        <v>2.2250738585072e-308</v>
+      </c>
+      <c r="E182" t="s">
+        <v>305</v>
+      </c>
+      <c r="F182" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>304</v>
+      </c>
+      <c r="B183" t="s">
+        <v>84</v>
+      </c>
+      <c r="C183" t="n">
+        <v>37356363</v>
+      </c>
+      <c r="D183" t="n">
+        <v>2.2250738585072e-308</v>
+      </c>
+      <c r="E183" t="s">
+        <v>307</v>
+      </c>
+      <c r="F183" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>306</v>
+      </c>
+      <c r="B184" t="s">
+        <v>84</v>
+      </c>
+      <c r="C184" t="n">
+        <v>37356363</v>
+      </c>
+      <c r="D184" t="n">
+        <v>2.2250738585072e-308</v>
+      </c>
+      <c r="E184" t="s">
+        <v>307</v>
+      </c>
+      <c r="F184" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>308</v>
+      </c>
+      <c r="B185" t="s">
+        <v>84</v>
+      </c>
+      <c r="C185" t="n">
+        <v>79212951</v>
+      </c>
+      <c r="D185" t="n">
+        <v>2.2250738585072e-308</v>
+      </c>
+      <c r="E185" t="s">
+        <v>309</v>
+      </c>
+      <c r="F185" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>310</v>
+      </c>
+      <c r="B186" t="s">
+        <v>84</v>
+      </c>
+      <c r="C186" t="n">
+        <v>79212951</v>
+      </c>
+      <c r="D186" t="n">
+        <v>2.2250738585072e-308</v>
+      </c>
+      <c r="E186" t="s">
+        <v>309</v>
+      </c>
+      <c r="F186" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>249</v>
+      </c>
+      <c r="B187" t="s">
+        <v>38</v>
+      </c>
+      <c r="C187" t="n">
+        <v>46390106</v>
+      </c>
+      <c r="D187" t="n">
+        <v>2.2250738585072e-308</v>
+      </c>
+      <c r="E187" t="s">
+        <v>311</v>
+      </c>
+      <c r="F187" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>312</v>
+      </c>
+      <c r="B188" t="s">
+        <v>38</v>
+      </c>
+      <c r="C188" t="n">
+        <v>47164481</v>
+      </c>
+      <c r="D188" t="n">
+        <v>2.2250738585072e-308</v>
+      </c>
+      <c r="E188" t="s">
+        <v>313</v>
+      </c>
+      <c r="F188" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>314</v>
+      </c>
+      <c r="B189" t="s">
+        <v>161</v>
+      </c>
+      <c r="C189" t="n">
+        <v>35234041</v>
+      </c>
+      <c r="D189" t="n">
+        <v>2.2250738585072e-308</v>
+      </c>
+      <c r="E189" t="s">
+        <v>315</v>
+      </c>
+      <c r="F189" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>316</v>
+      </c>
+      <c r="B190" t="s">
+        <v>18</v>
+      </c>
+      <c r="C190" t="n">
+        <v>186267099</v>
+      </c>
+      <c r="D190" t="n">
+        <v>2.2250738585072e-308</v>
+      </c>
+      <c r="E190" t="s">
+        <v>317</v>
+      </c>
+      <c r="F190" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>318</v>
+      </c>
+      <c r="B191" t="s">
+        <v>18</v>
+      </c>
+      <c r="C191" t="n">
+        <v>46780072</v>
+      </c>
+      <c r="D191" t="n">
+        <v>2.2250738585072e-308</v>
+      </c>
+      <c r="E191" t="s">
+        <v>319</v>
+      </c>
+      <c r="F191" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>320</v>
+      </c>
+      <c r="B192" t="s">
+        <v>18</v>
+      </c>
+      <c r="C192" t="n">
+        <v>52020173</v>
+      </c>
+      <c r="D192" t="n">
+        <v>2.2250738585072e-308</v>
+      </c>
+      <c r="E192" t="s">
+        <v>321</v>
+      </c>
+      <c r="F192" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>322</v>
+      </c>
+      <c r="B193" t="s">
+        <v>18</v>
+      </c>
+      <c r="C193" t="n">
+        <v>69101513</v>
+      </c>
+      <c r="D193" t="n">
+        <v>2.2250738585072e-308</v>
+      </c>
+      <c r="E193" t="s">
+        <v>323</v>
+      </c>
+      <c r="F193" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>324</v>
+      </c>
+      <c r="B194" t="s">
+        <v>325</v>
+      </c>
+      <c r="C194" t="n">
+        <v>1340837</v>
+      </c>
+      <c r="D194" t="n">
+        <v>2.2250738585072e-308</v>
+      </c>
+      <c r="E194" t="s">
+        <v>326</v>
+      </c>
+      <c r="F194" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>327</v>
+      </c>
+      <c r="B195" t="s">
+        <v>38</v>
+      </c>
+      <c r="C195" t="n">
+        <v>42363934</v>
+      </c>
+      <c r="D195" t="n">
+        <v>0.00000000000000133226762955019</v>
+      </c>
+      <c r="E195" t="s">
+        <v>328</v>
+      </c>
+      <c r="F195" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>329</v>
+      </c>
+      <c r="B196" t="s">
+        <v>78</v>
+      </c>
+      <c r="C196" t="n">
+        <v>19466935</v>
+      </c>
+      <c r="D196" t="n">
+        <v>0.00000000000000133226762955019</v>
+      </c>
+      <c r="E196" t="s">
+        <v>330</v>
+      </c>
+      <c r="F196" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>331</v>
+      </c>
+      <c r="B197" t="s">
+        <v>78</v>
+      </c>
+      <c r="C197" t="n">
+        <v>19466935</v>
+      </c>
+      <c r="D197" t="n">
+        <v>0.00000000000000133226762955019</v>
+      </c>
+      <c r="E197" t="s">
+        <v>330</v>
+      </c>
+      <c r="F197" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>332</v>
+      </c>
+      <c r="B198" t="s">
+        <v>38</v>
+      </c>
+      <c r="C198" t="n">
+        <v>13001837</v>
+      </c>
+      <c r="D198" t="n">
+        <v>0.00000000000000799360577730113</v>
+      </c>
+      <c r="E198" t="s">
+        <v>333</v>
+      </c>
+      <c r="F198" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>334</v>
+      </c>
+      <c r="B199" t="s">
+        <v>38</v>
+      </c>
+      <c r="C199" t="n">
+        <v>13001837</v>
+      </c>
+      <c r="D199" t="n">
+        <v>0.00000000000000799360577730113</v>
+      </c>
+      <c r="E199" t="s">
+        <v>333</v>
+      </c>
+      <c r="F199" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>335</v>
+      </c>
+      <c r="B200" t="s">
+        <v>108</v>
+      </c>
+      <c r="C200" t="n">
+        <v>82045577</v>
+      </c>
+      <c r="D200" t="n">
+        <v>0.0000000000000219824158875781</v>
+      </c>
+      <c r="E200" t="s">
+        <v>336</v>
+      </c>
+      <c r="F200" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>337</v>
+      </c>
+      <c r="B201" t="s">
+        <v>132</v>
+      </c>
+      <c r="C201" t="n">
+        <v>5553439</v>
+      </c>
+      <c r="D201" t="n">
+        <v>0.0000000000000233146835171283</v>
+      </c>
+      <c r="E201" t="s">
+        <v>338</v>
+      </c>
+      <c r="F201" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>176</v>
+      </c>
+      <c r="B202" t="s">
+        <v>67</v>
+      </c>
+      <c r="C202" t="n">
+        <v>65283371</v>
+      </c>
+      <c r="D202" t="n">
+        <v>0.0000000000000266453525910038</v>
+      </c>
+      <c r="E202" t="s">
+        <v>339</v>
+      </c>
+      <c r="F202" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>340</v>
+      </c>
+      <c r="B203" t="s">
+        <v>7</v>
+      </c>
+      <c r="C203" t="n">
+        <v>38609356</v>
+      </c>
+      <c r="D203" t="n">
+        <v>0.0000000000000373034936274053</v>
+      </c>
+      <c r="E203" t="s">
+        <v>341</v>
+      </c>
+      <c r="F203" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>342</v>
+      </c>
+      <c r="B204" t="s">
+        <v>52</v>
+      </c>
+      <c r="C204" t="n">
+        <v>50812732</v>
+      </c>
+      <c r="D204" t="n">
+        <v>0.0000000000000699440505513849</v>
+      </c>
+      <c r="E204" t="s">
+        <v>343</v>
+      </c>
+      <c r="F204" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>344</v>
+      </c>
+      <c r="B205" t="s">
+        <v>33</v>
+      </c>
+      <c r="C205" t="n">
+        <v>67579659</v>
+      </c>
+      <c r="D205" t="n">
+        <v>0.00526476415482957</v>
+      </c>
+      <c r="E205" t="s">
+        <v>345</v>
+      </c>
+      <c r="F205" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>346</v>
+      </c>
+      <c r="B206" t="s">
+        <v>33</v>
+      </c>
+      <c r="C206" t="n">
+        <v>67579659</v>
+      </c>
+      <c r="D206" t="n">
+        <v>0.00526476415482957</v>
+      </c>
+      <c r="E206" t="s">
+        <v>345</v>
+      </c>
+      <c r="F206" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>347</v>
+      </c>
+      <c r="B207" t="s">
+        <v>33</v>
+      </c>
+      <c r="C207" t="n">
+        <v>67579659</v>
+      </c>
+      <c r="D207" t="n">
+        <v>0.00526476415482957</v>
+      </c>
+      <c r="E207" t="s">
+        <v>345</v>
+      </c>
+      <c r="F207" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
